--- a/dataset2.xlsx
+++ b/dataset2.xlsx
@@ -14,18 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="6">
   <si>
     <t>High card</t>
+  </si>
+  <si>
+    <t>Three of a kind</t>
   </si>
   <si>
     <t>One pair</t>
   </si>
   <si>
-    <t>Three of a kind</t>
+    <t>Two pair</t>
   </si>
   <si>
-    <t>Two pair</t>
+    <t>Flush</t>
+  </si>
+  <si>
+    <t>Straight</t>
   </si>
 </sst>
 </file>
@@ -357,7 +363,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B86"/>
+  <dimension ref="A1:B582"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,7 +371,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1">
-        <v>5.23</v>
+        <v>5.24</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -373,15 +379,15 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>5.1</v>
+        <v>11.16</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>5.25</v>
+        <v>5.22</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
@@ -389,31 +395,31 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>7.26</v>
+        <v>5.23</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>7.1</v>
+        <v>7.24</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>7.16</v>
+        <v>7.17</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>5.12</v>
+        <v>5.11</v>
       </c>
       <c r="B7" t="s">
         <v>0</v>
@@ -421,7 +427,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>4.07</v>
+        <v>5.11</v>
       </c>
       <c r="B8" t="s">
         <v>0</v>
@@ -429,7 +435,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>5.1</v>
+        <v>5.07</v>
       </c>
       <c r="B9" t="s">
         <v>0</v>
@@ -437,7 +443,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>5.12</v>
+        <v>5.16</v>
       </c>
       <c r="B10" t="s">
         <v>0</v>
@@ -445,39 +451,39 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>7.24</v>
+        <v>7.17</v>
       </c>
       <c r="B11" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>7.1</v>
+        <v>5.18</v>
       </c>
       <c r="B12" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>7.1</v>
+        <v>5.24</v>
       </c>
       <c r="B13" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>11.09</v>
+        <v>5.06</v>
       </c>
       <c r="B14" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>5.3</v>
+        <v>5.29</v>
       </c>
       <c r="B15" t="s">
         <v>0</v>
@@ -485,87 +491,87 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>7.25</v>
+        <v>9.18</v>
       </c>
       <c r="B16" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>5.19</v>
+        <v>7.1</v>
       </c>
       <c r="B17" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>5.16</v>
+        <v>7.16</v>
       </c>
       <c r="B18" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>5.24</v>
+        <v>7.16</v>
       </c>
       <c r="B19" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>7.16</v>
+        <v>5.07</v>
       </c>
       <c r="B20" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>7.31</v>
+        <v>5.1</v>
       </c>
       <c r="B21" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>5.12</v>
+        <v>11.18</v>
       </c>
       <c r="B22" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>7.17</v>
+        <v>5.22</v>
       </c>
       <c r="B23" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>5.15</v>
+        <v>7.15</v>
       </c>
       <c r="B24" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>5.17</v>
+        <v>7.14</v>
       </c>
       <c r="B25" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>5.3</v>
+        <v>5.18</v>
       </c>
       <c r="B26" t="s">
         <v>0</v>
@@ -573,7 +579,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>5.19</v>
+        <v>5.17</v>
       </c>
       <c r="B27" t="s">
         <v>0</v>
@@ -581,55 +587,55 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>5.3</v>
+        <v>7.19</v>
       </c>
       <c r="B28" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
-        <v>7.09</v>
+        <v>7.07</v>
       </c>
       <c r="B29" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>5.18</v>
+        <v>7.24</v>
       </c>
       <c r="B30" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
-        <v>7.09</v>
+        <v>9.23</v>
       </c>
       <c r="B31" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32">
-        <v>5.17</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="B32" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33">
-        <v>9.16</v>
+        <v>5.15</v>
       </c>
       <c r="B33" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34">
-        <v>5.18</v>
+        <v>5.23</v>
       </c>
       <c r="B34" t="s">
         <v>0</v>
@@ -637,7 +643,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35">
-        <v>5.1</v>
+        <v>5.25</v>
       </c>
       <c r="B35" t="s">
         <v>0</v>
@@ -645,39 +651,39 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36">
-        <v>5.3</v>
+        <v>7.24</v>
       </c>
       <c r="B36" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37">
-        <v>4.25</v>
+        <v>7.21</v>
       </c>
       <c r="B37" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38">
-        <v>5.21</v>
+        <v>7.23</v>
       </c>
       <c r="B38" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39">
-        <v>5.1</v>
+        <v>1.1</v>
       </c>
       <c r="B39" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40">
-        <v>5.17</v>
+        <v>5.16</v>
       </c>
       <c r="B40" t="s">
         <v>0</v>
@@ -685,15 +691,15 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41">
-        <v>7.09</v>
+        <v>5.16</v>
       </c>
       <c r="B41" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42">
-        <v>5.17</v>
+        <v>5.29</v>
       </c>
       <c r="B42" t="s">
         <v>0</v>
@@ -701,15 +707,15 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43">
-        <v>5.18</v>
+        <v>7.26</v>
       </c>
       <c r="B43" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44">
-        <v>5.39</v>
+        <v>5.22</v>
       </c>
       <c r="B44" t="s">
         <v>0</v>
@@ -717,23 +723,23 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45">
-        <v>5.09</v>
+        <v>9.16</v>
       </c>
       <c r="B45" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46">
-        <v>7.16</v>
+        <v>7.12</v>
       </c>
       <c r="B46" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47">
-        <v>5.17</v>
+        <v>5.16</v>
       </c>
       <c r="B47" t="s">
         <v>0</v>
@@ -741,71 +747,71 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48">
-        <v>11.17</v>
+        <v>11.31</v>
       </c>
       <c r="B48" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49">
-        <v>7.24</v>
+        <v>5.1</v>
       </c>
       <c r="B49" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50">
-        <v>9.15</v>
+        <v>4.1</v>
       </c>
       <c r="B50" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51">
-        <v>7.19</v>
+        <v>7.39</v>
       </c>
       <c r="B51" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52">
-        <v>9.17</v>
+        <v>7.25</v>
       </c>
       <c r="B52" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53">
-        <v>5.17</v>
+        <v>7.11</v>
       </c>
       <c r="B53" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54">
-        <v>5.24</v>
+        <v>7.23</v>
       </c>
       <c r="B54" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55">
-        <v>5.1</v>
+        <v>7.17</v>
       </c>
       <c r="B55" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56">
-        <v>5.16</v>
+        <v>5.1</v>
       </c>
       <c r="B56" t="s">
         <v>0</v>
@@ -813,7 +819,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57">
-        <v>5.16</v>
+        <v>5.24</v>
       </c>
       <c r="B57" t="s">
         <v>0</v>
@@ -821,47 +827,47 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58">
-        <v>7.09</v>
+        <v>7.16</v>
       </c>
       <c r="B58" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59">
-        <v>7.25</v>
+        <v>5.15</v>
       </c>
       <c r="B59" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60">
-        <v>5.15</v>
+        <v>7.25</v>
       </c>
       <c r="B60" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61">
-        <v>5.17</v>
+        <v>7.17</v>
       </c>
       <c r="B61" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62">
-        <v>5.17</v>
+        <v>7.32</v>
       </c>
       <c r="B62" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63">
-        <v>5.33</v>
+        <v>5.11</v>
       </c>
       <c r="B63" t="s">
         <v>0</v>
@@ -869,39 +875,39 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64">
-        <v>7.09</v>
+        <v>5.1</v>
       </c>
       <c r="B64" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65">
-        <v>11.17</v>
+        <v>5.31</v>
       </c>
       <c r="B65" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66">
-        <v>5.18</v>
+        <v>7.22</v>
       </c>
       <c r="B66" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67">
-        <v>5.24</v>
+        <v>7.17</v>
       </c>
       <c r="B67" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68">
-        <v>5.38</v>
+        <v>5.16</v>
       </c>
       <c r="B68" t="s">
         <v>0</v>
@@ -909,31 +915,31 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69">
-        <v>7.17</v>
+        <v>7.23</v>
       </c>
       <c r="B69" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70">
-        <v>5.08</v>
+        <v>7.14</v>
       </c>
       <c r="B70" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71">
-        <v>5.22</v>
+        <v>7.11</v>
       </c>
       <c r="B71" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72">
-        <v>5.19</v>
+        <v>5.16</v>
       </c>
       <c r="B72" t="s">
         <v>0</v>
@@ -941,31 +947,31 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73">
-        <v>9.220000000000001</v>
+        <v>5.17</v>
       </c>
       <c r="B73" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74">
-        <v>7.24</v>
+        <v>5.07</v>
       </c>
       <c r="B74" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75">
-        <v>7.26</v>
+        <v>5.22</v>
       </c>
       <c r="B75" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76">
-        <v>5.39</v>
+        <v>5.09</v>
       </c>
       <c r="B76" t="s">
         <v>0</v>
@@ -973,63 +979,63 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77">
-        <v>7.18</v>
+        <v>7.1</v>
       </c>
       <c r="B77" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78">
-        <v>7.11</v>
+        <v>5.25</v>
       </c>
       <c r="B78" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79">
-        <v>7.24</v>
+        <v>5.13</v>
       </c>
       <c r="B79" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80">
-        <v>7.08</v>
+        <v>9.18</v>
       </c>
       <c r="B80" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81">
-        <v>7.17</v>
+        <v>5.27</v>
       </c>
       <c r="B81" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82">
-        <v>7.19</v>
+        <v>5.17</v>
       </c>
       <c r="B82" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83">
-        <v>7.16</v>
+        <v>5.31</v>
       </c>
       <c r="B83" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84">
-        <v>5.16</v>
+        <v>5.18</v>
       </c>
       <c r="B84" t="s">
         <v>0</v>
@@ -1037,17 +1043,3985 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85">
-        <v>5.1</v>
+        <v>7.33</v>
       </c>
       <c r="B85" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86">
+        <v>7.31</v>
+      </c>
+      <c r="B86" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87">
+        <v>5.23</v>
+      </c>
+      <c r="B87" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88">
+        <v>5.24</v>
+      </c>
+      <c r="B88" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89">
+        <v>5.08</v>
+      </c>
+      <c r="B89" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90">
+        <v>7.17</v>
+      </c>
+      <c r="B90" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91">
+        <v>5.24</v>
+      </c>
+      <c r="B91" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92">
+        <v>7.25</v>
+      </c>
+      <c r="B92" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93">
+        <v>7.1</v>
+      </c>
+      <c r="B93" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94">
+        <v>7.1</v>
+      </c>
+      <c r="B94" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95">
+        <v>5.29</v>
+      </c>
+      <c r="B95" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96">
+        <v>5.09</v>
+      </c>
+      <c r="B96" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97">
+        <v>7.25</v>
+      </c>
+      <c r="B97" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98">
+        <v>7.12</v>
+      </c>
+      <c r="B98" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99">
+        <v>5.25</v>
+      </c>
+      <c r="B99" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100">
+        <v>7.23</v>
+      </c>
+      <c r="B100" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101">
+        <v>7.12</v>
+      </c>
+      <c r="B101" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102">
+        <v>5.11</v>
+      </c>
+      <c r="B102" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103">
+        <v>7.3</v>
+      </c>
+      <c r="B103" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104">
+        <v>5.17</v>
+      </c>
+      <c r="B104" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105">
+        <v>5.19</v>
+      </c>
+      <c r="B105" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106">
+        <v>5.09</v>
+      </c>
+      <c r="B106" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107">
+        <v>11.24</v>
+      </c>
+      <c r="B107" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108">
+        <v>7.11</v>
+      </c>
+      <c r="B108" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109">
+        <v>5.26</v>
+      </c>
+      <c r="B109" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110">
+        <v>5.3</v>
+      </c>
+      <c r="B110" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111">
+        <v>5.06</v>
+      </c>
+      <c r="B111" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112">
+        <v>7.17</v>
+      </c>
+      <c r="B112" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113">
+        <v>5.11</v>
+      </c>
+      <c r="B113" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114">
+        <v>5.11</v>
+      </c>
+      <c r="B114" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115">
+        <v>7.29</v>
+      </c>
+      <c r="B115" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116">
+        <v>7.15</v>
+      </c>
+      <c r="B116" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117">
+        <v>5.14</v>
+      </c>
+      <c r="B117" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118">
+        <v>7.16</v>
+      </c>
+      <c r="B118" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119">
         <v>5.16</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B119" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120">
+        <v>7.31</v>
+      </c>
+      <c r="B120" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121">
+        <v>7.17</v>
+      </c>
+      <c r="B121" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122">
+        <v>5.12</v>
+      </c>
+      <c r="B122" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123">
+        <v>5.24</v>
+      </c>
+      <c r="B123" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124">
+        <v>7.19</v>
+      </c>
+      <c r="B124" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125">
+        <v>7.1</v>
+      </c>
+      <c r="B125" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126">
+        <v>5.24</v>
+      </c>
+      <c r="B126" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127">
+        <v>5.23</v>
+      </c>
+      <c r="B127" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128">
+        <v>5.1</v>
+      </c>
+      <c r="B128" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129">
+        <v>5.24</v>
+      </c>
+      <c r="B129" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130">
+        <v>7.09</v>
+      </c>
+      <c r="B130" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131">
+        <v>7.17</v>
+      </c>
+      <c r="B131" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132">
+        <v>5.23</v>
+      </c>
+      <c r="B132" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133">
+        <v>5.18</v>
+      </c>
+      <c r="B133" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134">
+        <v>9.17</v>
+      </c>
+      <c r="B134" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135">
+        <v>7.29</v>
+      </c>
+      <c r="B135" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136">
+        <v>5.25</v>
+      </c>
+      <c r="B136" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137">
+        <v>5.18</v>
+      </c>
+      <c r="B137" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138">
+        <v>7.13</v>
+      </c>
+      <c r="B138" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139">
+        <v>7.24</v>
+      </c>
+      <c r="B139" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140">
+        <v>5.12</v>
+      </c>
+      <c r="B140" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141">
+        <v>5.17</v>
+      </c>
+      <c r="B141" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142">
+        <v>5.14</v>
+      </c>
+      <c r="B142" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143">
+        <v>7.16</v>
+      </c>
+      <c r="B143" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144">
+        <v>5.22</v>
+      </c>
+      <c r="B144" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145">
+        <v>7.16</v>
+      </c>
+      <c r="B145" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146">
+        <v>5.25</v>
+      </c>
+      <c r="B146" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147">
+        <v>7.25</v>
+      </c>
+      <c r="B147" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148">
+        <v>7.09</v>
+      </c>
+      <c r="B148" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149">
+        <v>7.24</v>
+      </c>
+      <c r="B149" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150">
+        <v>5.2</v>
+      </c>
+      <c r="B150" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151">
+        <v>7.17</v>
+      </c>
+      <c r="B151" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152">
+        <v>5.17</v>
+      </c>
+      <c r="B152" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153">
+        <v>5.17</v>
+      </c>
+      <c r="B153" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154">
+        <v>5.31</v>
+      </c>
+      <c r="B154" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155">
+        <v>7.26</v>
+      </c>
+      <c r="B155" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156">
+        <v>5.25</v>
+      </c>
+      <c r="B156" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157">
+        <v>5.19</v>
+      </c>
+      <c r="B157" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158">
+        <v>7.25</v>
+      </c>
+      <c r="B158" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159">
+        <v>11.32</v>
+      </c>
+      <c r="B159" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160">
+        <v>5.22</v>
+      </c>
+      <c r="B160" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161">
+        <v>7.3</v>
+      </c>
+      <c r="B161" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162">
+        <v>5.1</v>
+      </c>
+      <c r="B162" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163">
+        <v>7.11</v>
+      </c>
+      <c r="B163" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164">
+        <v>5.08</v>
+      </c>
+      <c r="B164" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165">
+        <v>5.08</v>
+      </c>
+      <c r="B165" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166">
+        <v>5.39</v>
+      </c>
+      <c r="B166" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167">
+        <v>7.24</v>
+      </c>
+      <c r="B167" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168">
+        <v>5.29</v>
+      </c>
+      <c r="B168" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169">
+        <v>9.109999999999999</v>
+      </c>
+      <c r="B169" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170">
+        <v>9.09</v>
+      </c>
+      <c r="B170" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171">
+        <v>7.26</v>
+      </c>
+      <c r="B171" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172">
+        <v>5.16</v>
+      </c>
+      <c r="B172" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173">
+        <v>7.18</v>
+      </c>
+      <c r="B173" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174">
+        <v>7.23</v>
+      </c>
+      <c r="B174" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175">
+        <v>5.2</v>
+      </c>
+      <c r="B175" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176">
+        <v>5.29</v>
+      </c>
+      <c r="B176" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177">
+        <v>5.12</v>
+      </c>
+      <c r="B177" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178">
+        <v>7.18</v>
+      </c>
+      <c r="B178" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179">
+        <v>5.25</v>
+      </c>
+      <c r="B179" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180">
+        <v>7.09</v>
+      </c>
+      <c r="B180" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181">
+        <v>5.19</v>
+      </c>
+      <c r="B181" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182">
+        <v>5.18</v>
+      </c>
+      <c r="B182" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183">
+        <v>7.17</v>
+      </c>
+      <c r="B183" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184">
+        <v>7.3</v>
+      </c>
+      <c r="B184" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185">
+        <v>7.17</v>
+      </c>
+      <c r="B185" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186">
+        <v>7.15</v>
+      </c>
+      <c r="B186" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187">
+        <v>5.19</v>
+      </c>
+      <c r="B187" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188">
+        <v>7.11</v>
+      </c>
+      <c r="B188" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189">
+        <v>5.11</v>
+      </c>
+      <c r="B189" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190">
+        <v>9.24</v>
+      </c>
+      <c r="B190" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191">
+        <v>7.07</v>
+      </c>
+      <c r="B191" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192">
+        <v>5.15</v>
+      </c>
+      <c r="B192" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
+      <c r="A193">
+        <v>5.24</v>
+      </c>
+      <c r="B193" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194">
+        <v>5.25</v>
+      </c>
+      <c r="B194" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195">
+        <v>7.15</v>
+      </c>
+      <c r="B195" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
+      <c r="A196">
+        <v>5.16</v>
+      </c>
+      <c r="B196" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197">
+        <v>7.22</v>
+      </c>
+      <c r="B197" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198">
+        <v>7.09</v>
+      </c>
+      <c r="B198" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
+      <c r="A199">
+        <v>7.17</v>
+      </c>
+      <c r="B199" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
+      <c r="A200">
+        <v>7.19</v>
+      </c>
+      <c r="B200" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
+      <c r="A201">
+        <v>5.1</v>
+      </c>
+      <c r="B201" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
+      <c r="A202">
+        <v>5.22</v>
+      </c>
+      <c r="B202" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203">
+        <v>11.18</v>
+      </c>
+      <c r="B203" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
+      <c r="A204">
+        <v>7.11</v>
+      </c>
+      <c r="B204" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
+      <c r="A205">
+        <v>7.09</v>
+      </c>
+      <c r="B205" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
+      <c r="A206">
+        <v>5.24</v>
+      </c>
+      <c r="B206" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
+      <c r="A207">
+        <v>7.17</v>
+      </c>
+      <c r="B207" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
+      <c r="A208">
+        <v>5.2</v>
+      </c>
+      <c r="B208" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209">
+        <v>7.18</v>
+      </c>
+      <c r="B209" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
+      <c r="A210">
+        <v>5.17</v>
+      </c>
+      <c r="B210" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
+      <c r="A211">
+        <v>7.19</v>
+      </c>
+      <c r="B211" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
+      <c r="A212">
+        <v>5.15</v>
+      </c>
+      <c r="B212" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
+      <c r="A213">
+        <v>5.07</v>
+      </c>
+      <c r="B213" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
+      <c r="A214">
+        <v>4.3</v>
+      </c>
+      <c r="B214" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
+      <c r="A215">
+        <v>9.109999999999999</v>
+      </c>
+      <c r="B215" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
+      <c r="A216">
+        <v>5.19</v>
+      </c>
+      <c r="B216" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
+      <c r="A217">
+        <v>7.25</v>
+      </c>
+      <c r="B217" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2">
+      <c r="A218">
+        <v>5.14</v>
+      </c>
+      <c r="B218" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2">
+      <c r="A219">
+        <v>7.27</v>
+      </c>
+      <c r="B219" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2">
+      <c r="A220">
+        <v>9.07</v>
+      </c>
+      <c r="B220" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2">
+      <c r="A221">
+        <v>7.24</v>
+      </c>
+      <c r="B221" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2">
+      <c r="A222">
+        <v>4.17</v>
+      </c>
+      <c r="B222" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2">
+      <c r="A223">
+        <v>7.23</v>
+      </c>
+      <c r="B223" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2">
+      <c r="A224">
+        <v>9.16</v>
+      </c>
+      <c r="B224" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2">
+      <c r="A225">
+        <v>5.18</v>
+      </c>
+      <c r="B225" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2">
+      <c r="A226">
+        <v>5.31</v>
+      </c>
+      <c r="B226" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2">
+      <c r="A227">
+        <v>5.17</v>
+      </c>
+      <c r="B227" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2">
+      <c r="A228">
+        <v>7.23</v>
+      </c>
+      <c r="B228" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2">
+      <c r="A229">
+        <v>5.19</v>
+      </c>
+      <c r="B229" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2">
+      <c r="A230">
+        <v>5.15</v>
+      </c>
+      <c r="B230" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2">
+      <c r="A231">
+        <v>7.13</v>
+      </c>
+      <c r="B231" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2">
+      <c r="A232">
+        <v>7.17</v>
+      </c>
+      <c r="B232" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2">
+      <c r="A233">
+        <v>5.24</v>
+      </c>
+      <c r="B233" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2">
+      <c r="A234">
+        <v>5.1</v>
+      </c>
+      <c r="B234" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
+      <c r="A235">
+        <v>7.23</v>
+      </c>
+      <c r="B235" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2">
+      <c r="A236">
+        <v>5.18</v>
+      </c>
+      <c r="B236" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2">
+      <c r="A237">
+        <v>5.12</v>
+      </c>
+      <c r="B237" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2">
+      <c r="A238">
+        <v>11.25</v>
+      </c>
+      <c r="B238" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2">
+      <c r="A239">
+        <v>5.3</v>
+      </c>
+      <c r="B239" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2">
+      <c r="A240">
+        <v>5.13</v>
+      </c>
+      <c r="B240" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2">
+      <c r="A241">
+        <v>9.210000000000001</v>
+      </c>
+      <c r="B241" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2">
+      <c r="A242">
+        <v>7.11</v>
+      </c>
+      <c r="B242" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2">
+      <c r="A243">
+        <v>5.15</v>
+      </c>
+      <c r="B243" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2">
+      <c r="A244">
+        <v>11.17</v>
+      </c>
+      <c r="B244" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2">
+      <c r="A245">
+        <v>5.3</v>
+      </c>
+      <c r="B245" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2">
+      <c r="A246">
+        <v>5.18</v>
+      </c>
+      <c r="B246" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2">
+      <c r="A247">
+        <v>5.27</v>
+      </c>
+      <c r="B247" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2">
+      <c r="A248">
+        <v>7.24</v>
+      </c>
+      <c r="B248" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2">
+      <c r="A249">
+        <v>7.1</v>
+      </c>
+      <c r="B249" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2">
+      <c r="A250">
+        <v>5.31</v>
+      </c>
+      <c r="B250" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2">
+      <c r="A251">
+        <v>7.25</v>
+      </c>
+      <c r="B251" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2">
+      <c r="A252">
+        <v>7.24</v>
+      </c>
+      <c r="B252" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2">
+      <c r="A253">
+        <v>7.24</v>
+      </c>
+      <c r="B253" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2">
+      <c r="A254">
+        <v>5.18</v>
+      </c>
+      <c r="B254" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2">
+      <c r="A255">
+        <v>5.17</v>
+      </c>
+      <c r="B255" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2">
+      <c r="A256">
+        <v>7.11</v>
+      </c>
+      <c r="B256" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2">
+      <c r="A257">
+        <v>5.08</v>
+      </c>
+      <c r="B257" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2">
+      <c r="A258">
+        <v>5.12</v>
+      </c>
+      <c r="B258" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2">
+      <c r="A259">
+        <v>5.2</v>
+      </c>
+      <c r="B259" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2">
+      <c r="A260">
+        <v>5.09</v>
+      </c>
+      <c r="B260" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2">
+      <c r="A261">
+        <v>5.23</v>
+      </c>
+      <c r="B261" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2">
+      <c r="A262">
+        <v>5.24</v>
+      </c>
+      <c r="B262" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2">
+      <c r="A263">
+        <v>7.18</v>
+      </c>
+      <c r="B263" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2">
+      <c r="A264">
+        <v>7.32</v>
+      </c>
+      <c r="B264" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2">
+      <c r="A265">
+        <v>7.24</v>
+      </c>
+      <c r="B265" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2">
+      <c r="A266">
+        <v>7.11</v>
+      </c>
+      <c r="B266" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2">
+      <c r="A267">
+        <v>11.17</v>
+      </c>
+      <c r="B267" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2">
+      <c r="A268">
+        <v>5.16</v>
+      </c>
+      <c r="B268" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2">
+      <c r="A269">
+        <v>7.18</v>
+      </c>
+      <c r="B269" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2">
+      <c r="A270">
+        <v>9.1</v>
+      </c>
+      <c r="B270" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2">
+      <c r="A271">
+        <v>5.15</v>
+      </c>
+      <c r="B271" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2">
+      <c r="A272">
+        <v>7.11</v>
+      </c>
+      <c r="B272" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2">
+      <c r="A273">
+        <v>5.3</v>
+      </c>
+      <c r="B273" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2">
+      <c r="A274">
+        <v>7.08</v>
+      </c>
+      <c r="B274" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2">
+      <c r="A275">
+        <v>5.24</v>
+      </c>
+      <c r="B275" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2">
+      <c r="A276">
+        <v>7.22</v>
+      </c>
+      <c r="B276" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2">
+      <c r="A277">
+        <v>5.19</v>
+      </c>
+      <c r="B277" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2">
+      <c r="A278">
+        <v>5.16</v>
+      </c>
+      <c r="B278" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2">
+      <c r="A279">
+        <v>7.19</v>
+      </c>
+      <c r="B279" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2">
+      <c r="A280">
+        <v>5.07</v>
+      </c>
+      <c r="B280" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2">
+      <c r="A281">
+        <v>7.21</v>
+      </c>
+      <c r="B281" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2">
+      <c r="A282">
+        <v>7.25</v>
+      </c>
+      <c r="B282" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2">
+      <c r="A283">
+        <v>7.22</v>
+      </c>
+      <c r="B283" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2">
+      <c r="A284">
+        <v>7.18</v>
+      </c>
+      <c r="B284" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2">
+      <c r="A285">
+        <v>5.24</v>
+      </c>
+      <c r="B285" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2">
+      <c r="A286">
+        <v>7.15</v>
+      </c>
+      <c r="B286" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2">
+      <c r="A287">
+        <v>7.2</v>
+      </c>
+      <c r="B287" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2">
+      <c r="A288">
+        <v>5.31</v>
+      </c>
+      <c r="B288" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2">
+      <c r="A289">
+        <v>9.15</v>
+      </c>
+      <c r="B289" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2">
+      <c r="A290">
+        <v>5.19</v>
+      </c>
+      <c r="B290" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2">
+      <c r="A291">
+        <v>5.09</v>
+      </c>
+      <c r="B291" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2">
+      <c r="A292">
+        <v>7.2</v>
+      </c>
+      <c r="B292" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2">
+      <c r="A293">
+        <v>7.22</v>
+      </c>
+      <c r="B293" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2">
+      <c r="A294">
+        <v>11.17</v>
+      </c>
+      <c r="B294" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2">
+      <c r="A295">
+        <v>5.2</v>
+      </c>
+      <c r="B295" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2">
+      <c r="A296">
+        <v>5.17</v>
+      </c>
+      <c r="B296" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2">
+      <c r="A297">
+        <v>7.17</v>
+      </c>
+      <c r="B297" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2">
+      <c r="A298">
+        <v>5.3</v>
+      </c>
+      <c r="B298" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2">
+      <c r="A299">
+        <v>5.25</v>
+      </c>
+      <c r="B299" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2">
+      <c r="A300">
+        <v>11.18</v>
+      </c>
+      <c r="B300" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2">
+      <c r="A301">
+        <v>5.24</v>
+      </c>
+      <c r="B301" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2">
+      <c r="A302">
+        <v>9.24</v>
+      </c>
+      <c r="B302" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2">
+      <c r="A303">
+        <v>5.11</v>
+      </c>
+      <c r="B303" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2">
+      <c r="A304">
+        <v>7.29</v>
+      </c>
+      <c r="B304" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2">
+      <c r="A305">
+        <v>5.1</v>
+      </c>
+      <c r="B305" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2">
+      <c r="A306">
+        <v>5.09</v>
+      </c>
+      <c r="B306" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2">
+      <c r="A307">
+        <v>7.18</v>
+      </c>
+      <c r="B307" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2">
+      <c r="A308">
+        <v>7.18</v>
+      </c>
+      <c r="B308" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2">
+      <c r="A309">
+        <v>5.19</v>
+      </c>
+      <c r="B309" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2">
+      <c r="A310">
+        <v>5.09</v>
+      </c>
+      <c r="B310" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2">
+      <c r="A311">
+        <v>5.17</v>
+      </c>
+      <c r="B311" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2">
+      <c r="A312">
+        <v>5.06</v>
+      </c>
+      <c r="B312" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2">
+      <c r="A313">
+        <v>7.14</v>
+      </c>
+      <c r="B313" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2">
+      <c r="A314">
+        <v>7.15</v>
+      </c>
+      <c r="B314" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2">
+      <c r="A315">
+        <v>5.24</v>
+      </c>
+      <c r="B315" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2">
+      <c r="A316">
+        <v>5.16</v>
+      </c>
+      <c r="B316" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2">
+      <c r="A317">
+        <v>7.17</v>
+      </c>
+      <c r="B317" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2">
+      <c r="A318">
+        <v>5.24</v>
+      </c>
+      <c r="B318" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2">
+      <c r="A319">
+        <v>9.24</v>
+      </c>
+      <c r="B319" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2">
+      <c r="A320">
+        <v>5.11</v>
+      </c>
+      <c r="B320" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2">
+      <c r="A321">
+        <v>7.23</v>
+      </c>
+      <c r="B321" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2">
+      <c r="A322">
+        <v>5.23</v>
+      </c>
+      <c r="B322" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2">
+      <c r="A323">
+        <v>5.12</v>
+      </c>
+      <c r="B323" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2">
+      <c r="A324">
+        <v>5.24</v>
+      </c>
+      <c r="B324" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2">
+      <c r="A325">
+        <v>7.09</v>
+      </c>
+      <c r="B325" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2">
+      <c r="A326">
+        <v>7.12</v>
+      </c>
+      <c r="B326" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2">
+      <c r="A327">
+        <v>5.24</v>
+      </c>
+      <c r="B327" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2">
+      <c r="A328">
+        <v>7.25</v>
+      </c>
+      <c r="B328" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2">
+      <c r="A329">
+        <v>7.15</v>
+      </c>
+      <c r="B329" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2">
+      <c r="A330">
+        <v>7.17</v>
+      </c>
+      <c r="B330" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2">
+      <c r="A331">
+        <v>7.3</v>
+      </c>
+      <c r="B331" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2">
+      <c r="A332">
+        <v>5.32</v>
+      </c>
+      <c r="B332" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2">
+      <c r="A333">
+        <v>7.21</v>
+      </c>
+      <c r="B333" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2">
+      <c r="A334">
+        <v>5.17</v>
+      </c>
+      <c r="B334" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2">
+      <c r="A335">
+        <v>5.12</v>
+      </c>
+      <c r="B335" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2">
+      <c r="A336">
+        <v>7.13</v>
+      </c>
+      <c r="B336" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2">
+      <c r="A337">
+        <v>7.15</v>
+      </c>
+      <c r="B337" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2">
+      <c r="A338">
+        <v>5.25</v>
+      </c>
+      <c r="B338" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2">
+      <c r="A339">
+        <v>5.31</v>
+      </c>
+      <c r="B339" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2">
+      <c r="A340">
+        <v>7.19</v>
+      </c>
+      <c r="B340" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2">
+      <c r="A341">
+        <v>7.25</v>
+      </c>
+      <c r="B341" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2">
+      <c r="A342">
+        <v>7.24</v>
+      </c>
+      <c r="B342" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2">
+      <c r="A343">
+        <v>5.16</v>
+      </c>
+      <c r="B343" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2">
+      <c r="A344">
+        <v>7.09</v>
+      </c>
+      <c r="B344" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2">
+      <c r="A345">
+        <v>5.17</v>
+      </c>
+      <c r="B345" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2">
+      <c r="A346">
+        <v>5.1</v>
+      </c>
+      <c r="B346" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2">
+      <c r="A347">
+        <v>9.1</v>
+      </c>
+      <c r="B347" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2">
+      <c r="A348">
+        <v>7.18</v>
+      </c>
+      <c r="B348" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2">
+      <c r="A349">
+        <v>5.18</v>
+      </c>
+      <c r="B349" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2">
+      <c r="A350">
+        <v>7.19</v>
+      </c>
+      <c r="B350" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2">
+      <c r="A351">
+        <v>9.1</v>
+      </c>
+      <c r="B351" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2">
+      <c r="A352">
+        <v>7.16</v>
+      </c>
+      <c r="B352" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2">
+      <c r="A353">
+        <v>5.22</v>
+      </c>
+      <c r="B353" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2">
+      <c r="A354">
+        <v>5.23</v>
+      </c>
+      <c r="B354" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2">
+      <c r="A355">
+        <v>5.17</v>
+      </c>
+      <c r="B355" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2">
+      <c r="A356">
+        <v>7.1</v>
+      </c>
+      <c r="B356" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2">
+      <c r="A357">
+        <v>5.18</v>
+      </c>
+      <c r="B357" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2">
+      <c r="A358">
+        <v>7.2</v>
+      </c>
+      <c r="B358" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2">
+      <c r="A359">
+        <v>7.24</v>
+      </c>
+      <c r="B359" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2">
+      <c r="A360">
+        <v>5.12</v>
+      </c>
+      <c r="B360" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2">
+      <c r="A361">
+        <v>5.24</v>
+      </c>
+      <c r="B361" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2">
+      <c r="A362">
+        <v>7.24</v>
+      </c>
+      <c r="B362" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2">
+      <c r="A363">
+        <v>5.17</v>
+      </c>
+      <c r="B363" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2">
+      <c r="A364">
+        <v>7.26</v>
+      </c>
+      <c r="B364" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2">
+      <c r="A365">
+        <v>7.12</v>
+      </c>
+      <c r="B365" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2">
+      <c r="A366">
+        <v>5.22</v>
+      </c>
+      <c r="B366" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2">
+      <c r="A367">
+        <v>5.18</v>
+      </c>
+      <c r="B367" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2">
+      <c r="A368">
+        <v>7.16</v>
+      </c>
+      <c r="B368" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2">
+      <c r="A369">
+        <v>11.18</v>
+      </c>
+      <c r="B369" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2">
+      <c r="A370">
+        <v>7.23</v>
+      </c>
+      <c r="B370" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2">
+      <c r="A371">
+        <v>5.26</v>
+      </c>
+      <c r="B371" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2">
+      <c r="A372">
+        <v>5.16</v>
+      </c>
+      <c r="B372" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2">
+      <c r="A373">
+        <v>5.18</v>
+      </c>
+      <c r="B373" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2">
+      <c r="A374">
+        <v>5.17</v>
+      </c>
+      <c r="B374" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2">
+      <c r="A375">
+        <v>7.11</v>
+      </c>
+      <c r="B375" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2">
+      <c r="A376">
+        <v>7.17</v>
+      </c>
+      <c r="B376" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2">
+      <c r="A377">
+        <v>7.25</v>
+      </c>
+      <c r="B377" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2">
+      <c r="A378">
+        <v>5.15</v>
+      </c>
+      <c r="B378" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2">
+      <c r="A379">
+        <v>5.23</v>
+      </c>
+      <c r="B379" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2">
+      <c r="A380">
+        <v>7.16</v>
+      </c>
+      <c r="B380" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2">
+      <c r="A381">
+        <v>5.26</v>
+      </c>
+      <c r="B381" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2">
+      <c r="A382">
+        <v>5.24</v>
+      </c>
+      <c r="B382" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2">
+      <c r="A383">
+        <v>11.3</v>
+      </c>
+      <c r="B383" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2">
+      <c r="A384">
+        <v>7.3</v>
+      </c>
+      <c r="B384" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2">
+      <c r="A385">
+        <v>7.16</v>
+      </c>
+      <c r="B385" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2">
+      <c r="A386">
+        <v>5.17</v>
+      </c>
+      <c r="B386" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2">
+      <c r="A387">
+        <v>7.25</v>
+      </c>
+      <c r="B387" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2">
+      <c r="A388">
+        <v>5.17</v>
+      </c>
+      <c r="B388" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2">
+      <c r="A389">
+        <v>5.25</v>
+      </c>
+      <c r="B389" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2">
+      <c r="A390">
+        <v>5.25</v>
+      </c>
+      <c r="B390" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2">
+      <c r="A391">
+        <v>7.18</v>
+      </c>
+      <c r="B391" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2">
+      <c r="A392">
+        <v>5.17</v>
+      </c>
+      <c r="B392" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2">
+      <c r="A393">
+        <v>7.12</v>
+      </c>
+      <c r="B393" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2">
+      <c r="A394">
+        <v>7.24</v>
+      </c>
+      <c r="B394" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2">
+      <c r="A395">
+        <v>7.37</v>
+      </c>
+      <c r="B395" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2">
+      <c r="A396">
+        <v>5.15</v>
+      </c>
+      <c r="B396" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2">
+      <c r="A397">
+        <v>5.15</v>
+      </c>
+      <c r="B397" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2">
+      <c r="A398">
+        <v>7.08</v>
+      </c>
+      <c r="B398" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2">
+      <c r="A399">
+        <v>7.16</v>
+      </c>
+      <c r="B399" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2">
+      <c r="A400">
+        <v>7.1</v>
+      </c>
+      <c r="B400" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2">
+      <c r="A401">
+        <v>7.18</v>
+      </c>
+      <c r="B401" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2">
+      <c r="A402">
+        <v>5.19</v>
+      </c>
+      <c r="B402" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2">
+      <c r="A403">
+        <v>7.25</v>
+      </c>
+      <c r="B403" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2">
+      <c r="A404">
+        <v>5.17</v>
+      </c>
+      <c r="B404" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2">
+      <c r="A405">
+        <v>5.16</v>
+      </c>
+      <c r="B405" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2">
+      <c r="A406">
+        <v>7.19</v>
+      </c>
+      <c r="B406" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2">
+      <c r="A407">
+        <v>5.18</v>
+      </c>
+      <c r="B407" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2">
+      <c r="A408">
+        <v>7.24</v>
+      </c>
+      <c r="B408" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2">
+      <c r="A409">
+        <v>5.15</v>
+      </c>
+      <c r="B409" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2">
+      <c r="A410">
+        <v>7.16</v>
+      </c>
+      <c r="B410" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2">
+      <c r="A411">
+        <v>7.18</v>
+      </c>
+      <c r="B411" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2">
+      <c r="A412">
+        <v>9.31</v>
+      </c>
+      <c r="B412" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2">
+      <c r="A413">
+        <v>7.18</v>
+      </c>
+      <c r="B413" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2">
+      <c r="A414">
+        <v>5.25</v>
+      </c>
+      <c r="B414" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2">
+      <c r="A415">
+        <v>5.1</v>
+      </c>
+      <c r="B415" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2">
+      <c r="A416">
+        <v>5.19</v>
+      </c>
+      <c r="B416" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2">
+      <c r="A417">
+        <v>5.11</v>
+      </c>
+      <c r="B417" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2">
+      <c r="A418">
+        <v>5.38</v>
+      </c>
+      <c r="B418" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2">
+      <c r="A419">
+        <v>11.32</v>
+      </c>
+      <c r="B419" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2">
+      <c r="A420">
+        <v>5.17</v>
+      </c>
+      <c r="B420" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2">
+      <c r="A421">
+        <v>7.32</v>
+      </c>
+      <c r="B421" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2">
+      <c r="A422">
+        <v>5.16</v>
+      </c>
+      <c r="B422" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2">
+      <c r="A423">
+        <v>7.24</v>
+      </c>
+      <c r="B423" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2">
+      <c r="A424">
+        <v>5.1</v>
+      </c>
+      <c r="B424" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2">
+      <c r="A425">
+        <v>7.26</v>
+      </c>
+      <c r="B425" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2">
+      <c r="A426">
+        <v>5.16</v>
+      </c>
+      <c r="B426" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2">
+      <c r="A427">
+        <v>5.19</v>
+      </c>
+      <c r="B427" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2">
+      <c r="A428">
+        <v>5.13</v>
+      </c>
+      <c r="B428" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2">
+      <c r="A429">
+        <v>5.29</v>
+      </c>
+      <c r="B429" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2">
+      <c r="A430">
+        <v>7.25</v>
+      </c>
+      <c r="B430" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2">
+      <c r="A431">
+        <v>7.16</v>
+      </c>
+      <c r="B431" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2">
+      <c r="A432">
+        <v>7.24</v>
+      </c>
+      <c r="B432" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2">
+      <c r="A433">
+        <v>5.15</v>
+      </c>
+      <c r="B433" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2">
+      <c r="A434">
+        <v>7.1</v>
+      </c>
+      <c r="B434" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2">
+      <c r="A435">
+        <v>7.09</v>
+      </c>
+      <c r="B435" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2">
+      <c r="A436">
+        <v>5.23</v>
+      </c>
+      <c r="B436" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2">
+      <c r="A437">
+        <v>5.31</v>
+      </c>
+      <c r="B437" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2">
+      <c r="A438">
+        <v>7.25</v>
+      </c>
+      <c r="B438" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2">
+      <c r="A439">
+        <v>5.26</v>
+      </c>
+      <c r="B439" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2">
+      <c r="A440">
+        <v>7.23</v>
+      </c>
+      <c r="B440" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2">
+      <c r="A441">
+        <v>4.17</v>
+      </c>
+      <c r="B441" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2">
+      <c r="A442">
+        <v>5.22</v>
+      </c>
+      <c r="B442" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2">
+      <c r="A443">
+        <v>5.16</v>
+      </c>
+      <c r="B443" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2">
+      <c r="A444">
+        <v>5.33</v>
+      </c>
+      <c r="B444" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2">
+      <c r="A445">
+        <v>9.25</v>
+      </c>
+      <c r="B445" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2">
+      <c r="A446">
+        <v>7.39</v>
+      </c>
+      <c r="B446" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2">
+      <c r="A447">
+        <v>5.2</v>
+      </c>
+      <c r="B447" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2">
+      <c r="A448">
+        <v>7.16</v>
+      </c>
+      <c r="B448" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2">
+      <c r="A449">
+        <v>5.29</v>
+      </c>
+      <c r="B449" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2">
+      <c r="A450">
+        <v>4.24</v>
+      </c>
+      <c r="B450" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2">
+      <c r="A451">
+        <v>9.18</v>
+      </c>
+      <c r="B451" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2">
+      <c r="A452">
+        <v>7.23</v>
+      </c>
+      <c r="B452" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2">
+      <c r="A453">
+        <v>7.19</v>
+      </c>
+      <c r="B453" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2">
+      <c r="A454">
+        <v>5.16</v>
+      </c>
+      <c r="B454" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2">
+      <c r="A455">
+        <v>7.11</v>
+      </c>
+      <c r="B455" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2">
+      <c r="A456">
+        <v>5.3</v>
+      </c>
+      <c r="B456" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2">
+      <c r="A457">
+        <v>7.24</v>
+      </c>
+      <c r="B457" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2">
+      <c r="A458">
+        <v>7.23</v>
+      </c>
+      <c r="B458" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2">
+      <c r="A459">
+        <v>5.17</v>
+      </c>
+      <c r="B459" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2">
+      <c r="A460">
+        <v>5.26</v>
+      </c>
+      <c r="B460" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2">
+      <c r="A461">
+        <v>5.27</v>
+      </c>
+      <c r="B461" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2">
+      <c r="A462">
+        <v>5.17</v>
+      </c>
+      <c r="B462" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2">
+      <c r="A463">
+        <v>4.24</v>
+      </c>
+      <c r="B463" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2">
+      <c r="A464">
+        <v>7.16</v>
+      </c>
+      <c r="B464" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2">
+      <c r="A465">
+        <v>5.18</v>
+      </c>
+      <c r="B465" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2">
+      <c r="A466">
+        <v>5.18</v>
+      </c>
+      <c r="B466" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2">
+      <c r="A467">
+        <v>7.22</v>
+      </c>
+      <c r="B467" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2">
+      <c r="A468">
+        <v>5.06</v>
+      </c>
+      <c r="B468" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2">
+      <c r="A469">
+        <v>5.16</v>
+      </c>
+      <c r="B469" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2">
+      <c r="A470">
+        <v>11.19</v>
+      </c>
+      <c r="B470" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2">
+      <c r="A471">
+        <v>5.12</v>
+      </c>
+      <c r="B471" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2">
+      <c r="A472">
+        <v>7.16</v>
+      </c>
+      <c r="B472" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2">
+      <c r="A473">
+        <v>7.14</v>
+      </c>
+      <c r="B473" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2">
+      <c r="A474">
+        <v>5.21</v>
+      </c>
+      <c r="B474" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2">
+      <c r="A475">
+        <v>9.24</v>
+      </c>
+      <c r="B475" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2">
+      <c r="A476">
+        <v>11.24</v>
+      </c>
+      <c r="B476" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2">
+      <c r="A477">
+        <v>5.18</v>
+      </c>
+      <c r="B477" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2">
+      <c r="A478">
+        <v>7.31</v>
+      </c>
+      <c r="B478" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2">
+      <c r="A479">
+        <v>5.18</v>
+      </c>
+      <c r="B479" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2">
+      <c r="A480">
+        <v>7.17</v>
+      </c>
+      <c r="B480" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2">
+      <c r="A481">
+        <v>7.24</v>
+      </c>
+      <c r="B481" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2">
+      <c r="A482">
+        <v>7.26</v>
+      </c>
+      <c r="B482" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2">
+      <c r="A483">
+        <v>7.15</v>
+      </c>
+      <c r="B483" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2">
+      <c r="A484">
+        <v>5.22</v>
+      </c>
+      <c r="B484" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2">
+      <c r="A485">
+        <v>7.16</v>
+      </c>
+      <c r="B485" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2">
+      <c r="A486">
+        <v>7.18</v>
+      </c>
+      <c r="B486" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2">
+      <c r="A487">
+        <v>7.19</v>
+      </c>
+      <c r="B487" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2">
+      <c r="A488">
+        <v>11.19</v>
+      </c>
+      <c r="B488" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2">
+      <c r="A489">
+        <v>5.17</v>
+      </c>
+      <c r="B489" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2">
+      <c r="A490">
+        <v>5.24</v>
+      </c>
+      <c r="B490" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2">
+      <c r="A491">
+        <v>5.16</v>
+      </c>
+      <c r="B491" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2">
+      <c r="A492">
+        <v>11.24</v>
+      </c>
+      <c r="B492" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2">
+      <c r="A493">
+        <v>5.18</v>
+      </c>
+      <c r="B493" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2">
+      <c r="A494">
+        <v>5.11</v>
+      </c>
+      <c r="B494" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2">
+      <c r="A495">
+        <v>9.17</v>
+      </c>
+      <c r="B495" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2">
+      <c r="A496">
+        <v>5.1</v>
+      </c>
+      <c r="B496" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2">
+      <c r="A497">
+        <v>7.18</v>
+      </c>
+      <c r="B497" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2">
+      <c r="A498">
+        <v>7.18</v>
+      </c>
+      <c r="B498" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2">
+      <c r="A499">
+        <v>7.23</v>
+      </c>
+      <c r="B499" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2">
+      <c r="A500">
+        <v>7.1</v>
+      </c>
+      <c r="B500" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2">
+      <c r="A501">
+        <v>7.18</v>
+      </c>
+      <c r="B501" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2">
+      <c r="A502">
+        <v>5.31</v>
+      </c>
+      <c r="B502" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2">
+      <c r="A503">
+        <v>9.16</v>
+      </c>
+      <c r="B503" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2">
+      <c r="A504">
+        <v>7.2</v>
+      </c>
+      <c r="B504" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2">
+      <c r="A505">
+        <v>4.07</v>
+      </c>
+      <c r="B505" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2">
+      <c r="A506">
+        <v>7.1</v>
+      </c>
+      <c r="B506" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2">
+      <c r="A507">
+        <v>5.23</v>
+      </c>
+      <c r="B507" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2">
+      <c r="A508">
+        <v>5.16</v>
+      </c>
+      <c r="B508" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2">
+      <c r="A509">
+        <v>7.15</v>
+      </c>
+      <c r="B509" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2">
+      <c r="A510">
+        <v>5.16</v>
+      </c>
+      <c r="B510" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2">
+      <c r="A511">
+        <v>5.16</v>
+      </c>
+      <c r="B511" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2">
+      <c r="A512">
+        <v>5.19</v>
+      </c>
+      <c r="B512" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2">
+      <c r="A513">
+        <v>5.09</v>
+      </c>
+      <c r="B513" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2">
+      <c r="A514">
+        <v>7.16</v>
+      </c>
+      <c r="B514" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2">
+      <c r="A515">
+        <v>7.24</v>
+      </c>
+      <c r="B515" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2">
+      <c r="A516">
+        <v>7.25</v>
+      </c>
+      <c r="B516" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2">
+      <c r="A517">
+        <v>5.16</v>
+      </c>
+      <c r="B517" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2">
+      <c r="A518">
+        <v>7.15</v>
+      </c>
+      <c r="B518" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2">
+      <c r="A519">
+        <v>9.15</v>
+      </c>
+      <c r="B519" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2">
+      <c r="A520">
+        <v>5.16</v>
+      </c>
+      <c r="B520" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2">
+      <c r="A521">
+        <v>5.32</v>
+      </c>
+      <c r="B521" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2">
+      <c r="A522">
+        <v>4.16</v>
+      </c>
+      <c r="B522" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2">
+      <c r="A523">
+        <v>5.1</v>
+      </c>
+      <c r="B523" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2">
+      <c r="A524">
+        <v>7.1</v>
+      </c>
+      <c r="B524" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2">
+      <c r="A525">
+        <v>7.26</v>
+      </c>
+      <c r="B525" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2">
+      <c r="A526">
+        <v>5.16</v>
+      </c>
+      <c r="B526" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2">
+      <c r="A527">
+        <v>7.18</v>
+      </c>
+      <c r="B527" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2">
+      <c r="A528">
+        <v>9.16</v>
+      </c>
+      <c r="B528" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2">
+      <c r="A529">
+        <v>7.23</v>
+      </c>
+      <c r="B529" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2">
+      <c r="A530">
+        <v>5.33</v>
+      </c>
+      <c r="B530" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2">
+      <c r="A531">
+        <v>7.17</v>
+      </c>
+      <c r="B531" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2">
+      <c r="A532">
+        <v>7.18</v>
+      </c>
+      <c r="B532" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2">
+      <c r="A533">
+        <v>5.25</v>
+      </c>
+      <c r="B533" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2">
+      <c r="A534">
+        <v>7.24</v>
+      </c>
+      <c r="B534" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2">
+      <c r="A535">
+        <v>5.19</v>
+      </c>
+      <c r="B535" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2">
+      <c r="A536">
+        <v>7.32</v>
+      </c>
+      <c r="B536" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2">
+      <c r="A537">
+        <v>7.19</v>
+      </c>
+      <c r="B537" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2">
+      <c r="A538">
+        <v>5.24</v>
+      </c>
+      <c r="B538" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2">
+      <c r="A539">
+        <v>7.2</v>
+      </c>
+      <c r="B539" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2">
+      <c r="A540">
+        <v>5.16</v>
+      </c>
+      <c r="B540" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2">
+      <c r="A541">
+        <v>7.31</v>
+      </c>
+      <c r="B541" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2">
+      <c r="A542">
+        <v>5.13</v>
+      </c>
+      <c r="B542" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2">
+      <c r="A543">
+        <v>5.32</v>
+      </c>
+      <c r="B543" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2">
+      <c r="A544">
+        <v>5.23</v>
+      </c>
+      <c r="B544" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2">
+      <c r="A545">
+        <v>7.17</v>
+      </c>
+      <c r="B545" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2">
+      <c r="A546">
+        <v>5.24</v>
+      </c>
+      <c r="B546" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2">
+      <c r="A547">
+        <v>7.25</v>
+      </c>
+      <c r="B547" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2">
+      <c r="A548">
+        <v>5.1</v>
+      </c>
+      <c r="B548" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2">
+      <c r="A549">
+        <v>5.25</v>
+      </c>
+      <c r="B549" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2">
+      <c r="A550">
+        <v>5.19</v>
+      </c>
+      <c r="B550" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2">
+      <c r="A551">
+        <v>5.18</v>
+      </c>
+      <c r="B551" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2">
+      <c r="A552">
+        <v>5.25</v>
+      </c>
+      <c r="B552" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2">
+      <c r="A553">
+        <v>5.1</v>
+      </c>
+      <c r="B553" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2">
+      <c r="A554">
+        <v>7.15</v>
+      </c>
+      <c r="B554" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2">
+      <c r="A555">
+        <v>5.39</v>
+      </c>
+      <c r="B555" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2">
+      <c r="A556">
+        <v>5.1</v>
+      </c>
+      <c r="B556" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2">
+      <c r="A557">
+        <v>5.18</v>
+      </c>
+      <c r="B557" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2">
+      <c r="A558">
+        <v>5.16</v>
+      </c>
+      <c r="B558" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2">
+      <c r="A559">
+        <v>7.17</v>
+      </c>
+      <c r="B559" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2">
+      <c r="A560">
+        <v>9.18</v>
+      </c>
+      <c r="B560" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2">
+      <c r="A561">
+        <v>5.32</v>
+      </c>
+      <c r="B561" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2">
+      <c r="A562">
+        <v>7.17</v>
+      </c>
+      <c r="B562" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2">
+      <c r="A563">
+        <v>5.16</v>
+      </c>
+      <c r="B563" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2">
+      <c r="A564">
+        <v>7.08</v>
+      </c>
+      <c r="B564" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2">
+      <c r="A565">
+        <v>5.16</v>
+      </c>
+      <c r="B565" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2">
+      <c r="A566">
+        <v>5.26</v>
+      </c>
+      <c r="B566" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2">
+      <c r="A567">
+        <v>5.11</v>
+      </c>
+      <c r="B567" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2">
+      <c r="A568">
+        <v>5.17</v>
+      </c>
+      <c r="B568" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2">
+      <c r="A569">
+        <v>7.26</v>
+      </c>
+      <c r="B569" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2">
+      <c r="A570">
+        <v>11.3</v>
+      </c>
+      <c r="B570" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2">
+      <c r="A571">
+        <v>7.32</v>
+      </c>
+      <c r="B571" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2">
+      <c r="A572">
+        <v>5.26</v>
+      </c>
+      <c r="B572" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2">
+      <c r="A573">
+        <v>7.25</v>
+      </c>
+      <c r="B573" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2">
+      <c r="A574">
+        <v>7.1</v>
+      </c>
+      <c r="B574" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2">
+      <c r="A575">
+        <v>7.24</v>
+      </c>
+      <c r="B575" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2">
+      <c r="A576">
+        <v>5.24</v>
+      </c>
+      <c r="B576" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2">
+      <c r="A577">
+        <v>5.18</v>
+      </c>
+      <c r="B577" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2">
+      <c r="A578">
+        <v>5.22</v>
+      </c>
+      <c r="B578" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2">
+      <c r="A579">
+        <v>5.16</v>
+      </c>
+      <c r="B579" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2">
+      <c r="A580">
+        <v>7.17</v>
+      </c>
+      <c r="B580" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2">
+      <c r="A581">
+        <v>5.09</v>
+      </c>
+      <c r="B581" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2">
+      <c r="A582">
+        <v>5.25</v>
+      </c>
+      <c r="B582" t="s">
         <v>0</v>
       </c>
     </row>

--- a/dataset2.xlsx
+++ b/dataset2.xlsx
@@ -14,21 +14,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="6">
+  <si>
+    <t>One pair</t>
+  </si>
   <si>
     <t>High card</t>
   </si>
   <si>
-    <t>Three of a kind</t>
-  </si>
-  <si>
-    <t>One pair</t>
+    <t>Flush</t>
   </si>
   <si>
     <t>Two pair</t>
   </si>
   <si>
-    <t>Flush</t>
+    <t>Three of a kind</t>
   </si>
   <si>
     <t>Straight</t>
@@ -363,7 +363,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B582"/>
+  <dimension ref="A1:B833"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -371,7 +371,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1">
-        <v>5.24</v>
+        <v>7.1</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -379,7 +379,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>11.16</v>
+        <v>5.23</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -387,7 +387,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>5.22</v>
+        <v>7.21</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
@@ -395,39 +395,39 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>5.23</v>
+        <v>5.15</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>7.24</v>
+        <v>7.17</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>7.17</v>
+        <v>7.19</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>5.11</v>
+        <v>5.23</v>
       </c>
       <c r="B7" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>5.11</v>
+        <v>7.16</v>
       </c>
       <c r="B8" t="s">
         <v>0</v>
@@ -435,47 +435,47 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>5.07</v>
+        <v>5.17</v>
       </c>
       <c r="B9" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>5.16</v>
+        <v>5.1</v>
       </c>
       <c r="B10" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>7.17</v>
+        <v>7.09</v>
       </c>
       <c r="B11" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>5.18</v>
+        <v>5.25</v>
       </c>
       <c r="B12" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>5.24</v>
+        <v>5.18</v>
       </c>
       <c r="B13" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>5.06</v>
+        <v>7.16</v>
       </c>
       <c r="B14" t="s">
         <v>0</v>
@@ -483,26 +483,26 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>5.29</v>
+        <v>5.12</v>
       </c>
       <c r="B15" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>9.18</v>
+        <v>5.33</v>
       </c>
       <c r="B16" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>7.1</v>
+        <v>5.31</v>
       </c>
       <c r="B17" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -510,28 +510,28 @@
         <v>7.16</v>
       </c>
       <c r="B18" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>7.16</v>
+        <v>5.24</v>
       </c>
       <c r="B19" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>5.07</v>
+        <v>5.19</v>
       </c>
       <c r="B20" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>5.1</v>
+        <v>7.24</v>
       </c>
       <c r="B21" t="s">
         <v>0</v>
@@ -539,7 +539,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>11.18</v>
+        <v>5.16</v>
       </c>
       <c r="B22" t="s">
         <v>1</v>
@@ -547,87 +547,87 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>5.22</v>
+        <v>5.15</v>
       </c>
       <c r="B23" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>7.15</v>
+        <v>7.07</v>
       </c>
       <c r="B24" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>7.14</v>
+        <v>7.26</v>
       </c>
       <c r="B25" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>5.18</v>
+        <v>5.25</v>
       </c>
       <c r="B26" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>5.17</v>
+        <v>6.45</v>
       </c>
       <c r="B27" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>7.19</v>
+        <v>5.11</v>
       </c>
       <c r="B28" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
-        <v>7.07</v>
+        <v>5.23</v>
       </c>
       <c r="B29" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>7.24</v>
+        <v>7.26</v>
       </c>
       <c r="B30" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
-        <v>9.23</v>
+        <v>5.29</v>
       </c>
       <c r="B31" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32">
-        <v>9.199999999999999</v>
+        <v>5.22</v>
       </c>
       <c r="B32" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33">
-        <v>5.15</v>
+        <v>7.15</v>
       </c>
       <c r="B33" t="s">
         <v>0</v>
@@ -635,71 +635,71 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34">
-        <v>5.23</v>
+        <v>5.17</v>
       </c>
       <c r="B34" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35">
-        <v>5.25</v>
+        <v>5.23</v>
       </c>
       <c r="B35" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36">
-        <v>7.24</v>
+        <v>5.22</v>
       </c>
       <c r="B36" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37">
-        <v>7.21</v>
+        <v>5.25</v>
       </c>
       <c r="B37" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38">
-        <v>7.23</v>
+        <v>7.16</v>
       </c>
       <c r="B38" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39">
-        <v>1.1</v>
+        <v>7.17</v>
       </c>
       <c r="B39" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40">
-        <v>5.16</v>
+        <v>9.25</v>
       </c>
       <c r="B40" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41">
-        <v>5.16</v>
+        <v>5.17</v>
       </c>
       <c r="B41" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42">
-        <v>5.29</v>
+        <v>7.08</v>
       </c>
       <c r="B42" t="s">
         <v>0</v>
@@ -707,63 +707,63 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43">
-        <v>7.26</v>
+        <v>11.08</v>
       </c>
       <c r="B43" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44">
-        <v>5.22</v>
+        <v>5.16</v>
       </c>
       <c r="B44" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45">
-        <v>9.16</v>
+        <v>7.17</v>
       </c>
       <c r="B45" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46">
-        <v>7.12</v>
+        <v>7.23</v>
       </c>
       <c r="B46" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47">
-        <v>5.16</v>
+        <v>5.08</v>
       </c>
       <c r="B47" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48">
-        <v>11.31</v>
+        <v>7.19</v>
       </c>
       <c r="B48" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49">
-        <v>5.1</v>
+        <v>5.19</v>
       </c>
       <c r="B49" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50">
-        <v>4.1</v>
+        <v>7.16</v>
       </c>
       <c r="B50" t="s">
         <v>0</v>
@@ -771,47 +771,47 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51">
-        <v>7.39</v>
+        <v>7.33</v>
       </c>
       <c r="B51" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52">
-        <v>7.25</v>
+        <v>5.32</v>
       </c>
       <c r="B52" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53">
-        <v>7.11</v>
+        <v>5.21</v>
       </c>
       <c r="B53" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54">
-        <v>7.23</v>
+        <v>5.2</v>
       </c>
       <c r="B54" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55">
-        <v>7.17</v>
+        <v>5.22</v>
       </c>
       <c r="B55" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56">
-        <v>5.1</v>
+        <v>7.22</v>
       </c>
       <c r="B56" t="s">
         <v>0</v>
@@ -819,7 +819,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57">
-        <v>5.24</v>
+        <v>7.1</v>
       </c>
       <c r="B57" t="s">
         <v>0</v>
@@ -827,15 +827,15 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58">
-        <v>7.16</v>
+        <v>5.37</v>
       </c>
       <c r="B58" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59">
-        <v>5.15</v>
+        <v>7.24</v>
       </c>
       <c r="B59" t="s">
         <v>0</v>
@@ -843,31 +843,31 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60">
-        <v>7.25</v>
+        <v>5.13</v>
       </c>
       <c r="B60" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61">
-        <v>7.17</v>
+        <v>5.14</v>
       </c>
       <c r="B61" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62">
-        <v>7.32</v>
+        <v>5.24</v>
       </c>
       <c r="B62" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63">
-        <v>5.11</v>
+        <v>7.26</v>
       </c>
       <c r="B63" t="s">
         <v>0</v>
@@ -875,15 +875,15 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64">
-        <v>5.1</v>
+        <v>9.19</v>
       </c>
       <c r="B64" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65">
-        <v>5.31</v>
+        <v>7.17</v>
       </c>
       <c r="B65" t="s">
         <v>0</v>
@@ -891,103 +891,103 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66">
-        <v>7.22</v>
+        <v>7.26</v>
       </c>
       <c r="B66" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67">
-        <v>7.17</v>
+        <v>5.3</v>
       </c>
       <c r="B67" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68">
-        <v>5.16</v>
+        <v>5.14</v>
       </c>
       <c r="B68" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69">
-        <v>7.23</v>
+        <v>5.25</v>
       </c>
       <c r="B69" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70">
-        <v>7.14</v>
+        <v>5.18</v>
       </c>
       <c r="B70" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71">
-        <v>7.11</v>
+        <v>7.32</v>
       </c>
       <c r="B71" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72">
-        <v>5.16</v>
+        <v>11.18</v>
       </c>
       <c r="B72" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73">
-        <v>5.17</v>
+        <v>5.15</v>
       </c>
       <c r="B73" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74">
-        <v>5.07</v>
+        <v>5.17</v>
       </c>
       <c r="B74" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75">
-        <v>5.22</v>
+        <v>5.23</v>
       </c>
       <c r="B75" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76">
-        <v>5.09</v>
+        <v>11.16</v>
       </c>
       <c r="B76" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77">
-        <v>7.1</v>
+        <v>7.17</v>
       </c>
       <c r="B77" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78">
-        <v>5.25</v>
+        <v>7.16</v>
       </c>
       <c r="B78" t="s">
         <v>0</v>
@@ -995,7 +995,7 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79">
-        <v>5.13</v>
+        <v>7.25</v>
       </c>
       <c r="B79" t="s">
         <v>0</v>
@@ -1003,39 +1003,39 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80">
-        <v>9.18</v>
+        <v>7.22</v>
       </c>
       <c r="B80" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81">
-        <v>5.27</v>
+        <v>5.18</v>
       </c>
       <c r="B81" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82">
-        <v>5.17</v>
+        <v>5.2</v>
       </c>
       <c r="B82" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83">
-        <v>5.31</v>
+        <v>5.09</v>
       </c>
       <c r="B83" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84">
-        <v>5.18</v>
+        <v>7.17</v>
       </c>
       <c r="B84" t="s">
         <v>0</v>
@@ -1043,31 +1043,31 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85">
-        <v>7.33</v>
+        <v>7.16</v>
       </c>
       <c r="B85" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86">
-        <v>7.31</v>
+        <v>5.17</v>
       </c>
       <c r="B86" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87">
-        <v>5.23</v>
+        <v>9.23</v>
       </c>
       <c r="B87" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88">
-        <v>5.24</v>
+        <v>7.25</v>
       </c>
       <c r="B88" t="s">
         <v>0</v>
@@ -1075,55 +1075,55 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89">
-        <v>5.08</v>
+        <v>5.25</v>
       </c>
       <c r="B89" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90">
-        <v>7.17</v>
+        <v>5.26</v>
       </c>
       <c r="B90" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91">
-        <v>5.24</v>
+        <v>5.09</v>
       </c>
       <c r="B91" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92">
-        <v>7.25</v>
+        <v>11.1</v>
       </c>
       <c r="B92" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93">
-        <v>7.1</v>
+        <v>7.17</v>
       </c>
       <c r="B93" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94">
-        <v>7.1</v>
+        <v>7.17</v>
       </c>
       <c r="B94" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95">
-        <v>5.29</v>
+        <v>7.24</v>
       </c>
       <c r="B95" t="s">
         <v>0</v>
@@ -1131,7 +1131,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96">
-        <v>5.09</v>
+        <v>7.23</v>
       </c>
       <c r="B96" t="s">
         <v>0</v>
@@ -1139,23 +1139,23 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97">
-        <v>7.25</v>
+        <v>5.17</v>
       </c>
       <c r="B97" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98">
-        <v>7.12</v>
+        <v>7.32</v>
       </c>
       <c r="B98" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99">
-        <v>5.25</v>
+        <v>7.16</v>
       </c>
       <c r="B99" t="s">
         <v>0</v>
@@ -1163,23 +1163,23 @@
     </row>
     <row r="100" spans="1:2">
       <c r="A100">
-        <v>7.23</v>
+        <v>5.08</v>
       </c>
       <c r="B100" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101">
-        <v>7.12</v>
+        <v>5.27</v>
       </c>
       <c r="B101" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102">
-        <v>5.11</v>
+        <v>7.19</v>
       </c>
       <c r="B102" t="s">
         <v>0</v>
@@ -1187,55 +1187,55 @@
     </row>
     <row r="103" spans="1:2">
       <c r="A103">
-        <v>7.3</v>
+        <v>7.18</v>
       </c>
       <c r="B103" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104">
-        <v>5.17</v>
+        <v>5.24</v>
       </c>
       <c r="B104" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105">
-        <v>5.19</v>
+        <v>11.1</v>
       </c>
       <c r="B105" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106">
-        <v>5.09</v>
+        <v>5.19</v>
       </c>
       <c r="B106" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107">
-        <v>11.24</v>
+        <v>7.19</v>
       </c>
       <c r="B107" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108">
-        <v>7.11</v>
+        <v>5.08</v>
       </c>
       <c r="B108" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109">
-        <v>5.26</v>
+        <v>7.16</v>
       </c>
       <c r="B109" t="s">
         <v>0</v>
@@ -1243,15 +1243,15 @@
     </row>
     <row r="110" spans="1:2">
       <c r="A110">
-        <v>5.3</v>
+        <v>5.32</v>
       </c>
       <c r="B110" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111">
-        <v>5.06</v>
+        <v>7.18</v>
       </c>
       <c r="B111" t="s">
         <v>0</v>
@@ -1259,15 +1259,15 @@
     </row>
     <row r="112" spans="1:2">
       <c r="A112">
-        <v>7.17</v>
+        <v>5.18</v>
       </c>
       <c r="B112" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113">
-        <v>5.11</v>
+        <v>7.12</v>
       </c>
       <c r="B113" t="s">
         <v>0</v>
@@ -1275,31 +1275,31 @@
     </row>
     <row r="114" spans="1:2">
       <c r="A114">
-        <v>5.11</v>
+        <v>5.18</v>
       </c>
       <c r="B114" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115">
-        <v>7.29</v>
+        <v>11.24</v>
       </c>
       <c r="B115" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116">
-        <v>7.15</v>
+        <v>7.14</v>
       </c>
       <c r="B116" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117">
-        <v>5.14</v>
+        <v>7.24</v>
       </c>
       <c r="B117" t="s">
         <v>0</v>
@@ -1307,15 +1307,15 @@
     </row>
     <row r="118" spans="1:2">
       <c r="A118">
-        <v>7.16</v>
+        <v>5.09</v>
       </c>
       <c r="B118" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119">
-        <v>5.16</v>
+        <v>7.22</v>
       </c>
       <c r="B119" t="s">
         <v>0</v>
@@ -1323,66 +1323,66 @@
     </row>
     <row r="120" spans="1:2">
       <c r="A120">
-        <v>7.31</v>
+        <v>7.09</v>
       </c>
       <c r="B120" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121">
-        <v>7.17</v>
+        <v>5.15</v>
       </c>
       <c r="B121" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122">
-        <v>5.12</v>
+        <v>5.14</v>
       </c>
       <c r="B122" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123">
-        <v>5.24</v>
+        <v>5.14</v>
       </c>
       <c r="B123" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124">
-        <v>7.19</v>
+        <v>5.13</v>
       </c>
       <c r="B124" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125">
-        <v>7.1</v>
+        <v>5.25</v>
       </c>
       <c r="B125" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126">
-        <v>5.24</v>
+        <v>5.21</v>
       </c>
       <c r="B126" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127">
-        <v>5.23</v>
+        <v>5.08</v>
       </c>
       <c r="B127" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -1390,36 +1390,36 @@
         <v>5.1</v>
       </c>
       <c r="B128" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129">
-        <v>5.24</v>
+        <v>9.15</v>
       </c>
       <c r="B129" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130">
-        <v>7.09</v>
+        <v>11.18</v>
       </c>
       <c r="B130" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131">
-        <v>7.17</v>
+        <v>5.23</v>
       </c>
       <c r="B131" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132">
-        <v>5.23</v>
+        <v>7.18</v>
       </c>
       <c r="B132" t="s">
         <v>0</v>
@@ -1427,39 +1427,39 @@
     </row>
     <row r="133" spans="1:2">
       <c r="A133">
-        <v>5.18</v>
+        <v>9.08</v>
       </c>
       <c r="B133" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134">
-        <v>9.17</v>
+        <v>5.16</v>
       </c>
       <c r="B134" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135">
-        <v>7.29</v>
+        <v>9.17</v>
       </c>
       <c r="B135" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136">
-        <v>5.25</v>
+        <v>5.27</v>
       </c>
       <c r="B136" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137">
-        <v>5.18</v>
+        <v>7.3</v>
       </c>
       <c r="B137" t="s">
         <v>0</v>
@@ -1467,23 +1467,23 @@
     </row>
     <row r="138" spans="1:2">
       <c r="A138">
-        <v>7.13</v>
+        <v>7.17</v>
       </c>
       <c r="B138" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139">
-        <v>7.24</v>
+        <v>7.15</v>
       </c>
       <c r="B139" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140">
-        <v>5.12</v>
+        <v>7.19</v>
       </c>
       <c r="B140" t="s">
         <v>0</v>
@@ -1491,15 +1491,15 @@
     </row>
     <row r="141" spans="1:2">
       <c r="A141">
-        <v>5.17</v>
+        <v>5.08</v>
       </c>
       <c r="B141" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142">
-        <v>5.14</v>
+        <v>7.18</v>
       </c>
       <c r="B142" t="s">
         <v>0</v>
@@ -1507,31 +1507,31 @@
     </row>
     <row r="143" spans="1:2">
       <c r="A143">
-        <v>7.16</v>
+        <v>7.19</v>
       </c>
       <c r="B143" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144">
-        <v>5.22</v>
+        <v>5.18</v>
       </c>
       <c r="B144" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145">
-        <v>7.16</v>
+        <v>5.24</v>
       </c>
       <c r="B145" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146">
-        <v>5.25</v>
+        <v>7.23</v>
       </c>
       <c r="B146" t="s">
         <v>0</v>
@@ -1539,42 +1539,42 @@
     </row>
     <row r="147" spans="1:2">
       <c r="A147">
-        <v>7.25</v>
+        <v>5.15</v>
       </c>
       <c r="B147" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148">
-        <v>7.09</v>
+        <v>7.26</v>
       </c>
       <c r="B148" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149">
-        <v>7.24</v>
+        <v>5.16</v>
       </c>
       <c r="B149" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150">
-        <v>5.2</v>
+        <v>5.24</v>
       </c>
       <c r="B150" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151">
-        <v>7.17</v>
+        <v>5.09</v>
       </c>
       <c r="B151" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -1582,12 +1582,12 @@
         <v>5.17</v>
       </c>
       <c r="B152" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153">
-        <v>5.17</v>
+        <v>7.31</v>
       </c>
       <c r="B153" t="s">
         <v>0</v>
@@ -1595,31 +1595,31 @@
     </row>
     <row r="154" spans="1:2">
       <c r="A154">
-        <v>5.31</v>
+        <v>5.08</v>
       </c>
       <c r="B154" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155">
-        <v>7.26</v>
+        <v>5.09</v>
       </c>
       <c r="B155" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156">
-        <v>5.25</v>
+        <v>5.18</v>
       </c>
       <c r="B156" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157">
-        <v>5.19</v>
+        <v>7.11</v>
       </c>
       <c r="B157" t="s">
         <v>0</v>
@@ -1627,15 +1627,15 @@
     </row>
     <row r="158" spans="1:2">
       <c r="A158">
-        <v>7.25</v>
+        <v>5.16</v>
       </c>
       <c r="B158" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159">
-        <v>11.32</v>
+        <v>5.24</v>
       </c>
       <c r="B159" t="s">
         <v>1</v>
@@ -1643,47 +1643,47 @@
     </row>
     <row r="160" spans="1:2">
       <c r="A160">
-        <v>5.22</v>
+        <v>9.17</v>
       </c>
       <c r="B160" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161">
-        <v>7.3</v>
+        <v>11.24</v>
       </c>
       <c r="B161" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162">
-        <v>5.1</v>
+        <v>5.18</v>
       </c>
       <c r="B162" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163">
-        <v>7.11</v>
+        <v>5.17</v>
       </c>
       <c r="B163" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164">
-        <v>5.08</v>
+        <v>5.22</v>
       </c>
       <c r="B164" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165">
-        <v>5.08</v>
+        <v>7.17</v>
       </c>
       <c r="B165" t="s">
         <v>0</v>
@@ -1691,87 +1691,87 @@
     </row>
     <row r="166" spans="1:2">
       <c r="A166">
-        <v>5.39</v>
+        <v>5.23</v>
       </c>
       <c r="B166" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167">
-        <v>7.24</v>
+        <v>5.1</v>
       </c>
       <c r="B167" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168">
-        <v>5.29</v>
+        <v>5.25</v>
       </c>
       <c r="B168" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169">
-        <v>9.109999999999999</v>
+        <v>7.26</v>
       </c>
       <c r="B169" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170">
-        <v>9.09</v>
+        <v>7.1</v>
       </c>
       <c r="B170" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171">
-        <v>7.26</v>
+        <v>7.16</v>
       </c>
       <c r="B171" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172">
-        <v>5.16</v>
+        <v>5.12</v>
       </c>
       <c r="B172" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173">
-        <v>7.18</v>
+        <v>5.07</v>
       </c>
       <c r="B173" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="A174">
-        <v>7.23</v>
+        <v>5.1</v>
       </c>
       <c r="B174" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175">
-        <v>5.2</v>
+        <v>5.12</v>
       </c>
       <c r="B175" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176">
-        <v>5.29</v>
+        <v>7.24</v>
       </c>
       <c r="B176" t="s">
         <v>0</v>
@@ -1779,7 +1779,7 @@
     </row>
     <row r="177" spans="1:2">
       <c r="A177">
-        <v>5.12</v>
+        <v>7.1</v>
       </c>
       <c r="B177" t="s">
         <v>0</v>
@@ -1787,31 +1787,31 @@
     </row>
     <row r="178" spans="1:2">
       <c r="A178">
-        <v>7.18</v>
+        <v>7.1</v>
       </c>
       <c r="B178" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179">
-        <v>5.25</v>
+        <v>11.09</v>
       </c>
       <c r="B179" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180">
-        <v>7.09</v>
+        <v>5.3</v>
       </c>
       <c r="B180" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181">
-        <v>5.19</v>
+        <v>7.25</v>
       </c>
       <c r="B181" t="s">
         <v>0</v>
@@ -1819,103 +1819,103 @@
     </row>
     <row r="182" spans="1:2">
       <c r="A182">
-        <v>5.18</v>
+        <v>5.19</v>
       </c>
       <c r="B182" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183">
-        <v>7.17</v>
+        <v>5.16</v>
       </c>
       <c r="B183" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184">
-        <v>7.3</v>
+        <v>5.24</v>
       </c>
       <c r="B184" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185">
-        <v>7.17</v>
+        <v>7.16</v>
       </c>
       <c r="B185" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186">
-        <v>7.15</v>
+        <v>7.31</v>
       </c>
       <c r="B186" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187">
-        <v>5.19</v>
+        <v>5.12</v>
       </c>
       <c r="B187" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188">
-        <v>7.11</v>
+        <v>7.17</v>
       </c>
       <c r="B188" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189">
-        <v>5.11</v>
+        <v>5.15</v>
       </c>
       <c r="B189" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190">
-        <v>9.24</v>
+        <v>5.17</v>
       </c>
       <c r="B190" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191">
-        <v>7.07</v>
+        <v>5.3</v>
       </c>
       <c r="B191" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192">
-        <v>5.15</v>
+        <v>5.19</v>
       </c>
       <c r="B192" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193">
-        <v>5.24</v>
+        <v>5.3</v>
       </c>
       <c r="B193" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194">
-        <v>5.25</v>
+        <v>7.09</v>
       </c>
       <c r="B194" t="s">
         <v>0</v>
@@ -1923,15 +1923,15 @@
     </row>
     <row r="195" spans="1:2">
       <c r="A195">
-        <v>7.15</v>
+        <v>5.18</v>
       </c>
       <c r="B195" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196">
-        <v>5.16</v>
+        <v>7.09</v>
       </c>
       <c r="B196" t="s">
         <v>0</v>
@@ -1939,55 +1939,55 @@
     </row>
     <row r="197" spans="1:2">
       <c r="A197">
-        <v>7.22</v>
+        <v>5.17</v>
       </c>
       <c r="B197" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198">
-        <v>7.09</v>
+        <v>9.16</v>
       </c>
       <c r="B198" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199">
-        <v>7.17</v>
+        <v>5.18</v>
       </c>
       <c r="B199" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200">
-        <v>7.19</v>
+        <v>5.1</v>
       </c>
       <c r="B200" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="B201" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202">
-        <v>5.22</v>
+        <v>5.25</v>
       </c>
       <c r="B202" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203">
-        <v>11.18</v>
+        <v>5.21</v>
       </c>
       <c r="B203" t="s">
         <v>1</v>
@@ -1995,23 +1995,23 @@
     </row>
     <row r="204" spans="1:2">
       <c r="A204">
-        <v>7.11</v>
+        <v>5.1</v>
       </c>
       <c r="B204" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205">
-        <v>7.09</v>
+        <v>5.17</v>
       </c>
       <c r="B205" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:2">
       <c r="A206">
-        <v>5.24</v>
+        <v>7.09</v>
       </c>
       <c r="B206" t="s">
         <v>0</v>
@@ -2019,63 +2019,63 @@
     </row>
     <row r="207" spans="1:2">
       <c r="A207">
-        <v>7.17</v>
+        <v>5.17</v>
       </c>
       <c r="B207" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:2">
       <c r="A208">
-        <v>5.2</v>
+        <v>5.18</v>
       </c>
       <c r="B208" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209">
-        <v>7.18</v>
+        <v>5.39</v>
       </c>
       <c r="B209" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210">
-        <v>5.17</v>
+        <v>5.09</v>
       </c>
       <c r="B210" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="A211">
-        <v>7.19</v>
+        <v>7.16</v>
       </c>
       <c r="B211" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212">
-        <v>5.15</v>
+        <v>5.17</v>
       </c>
       <c r="B212" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213">
-        <v>5.07</v>
+        <v>11.17</v>
       </c>
       <c r="B213" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214">
-        <v>4.3</v>
+        <v>7.24</v>
       </c>
       <c r="B214" t="s">
         <v>0</v>
@@ -2083,7 +2083,7 @@
     </row>
     <row r="215" spans="1:2">
       <c r="A215">
-        <v>9.109999999999999</v>
+        <v>9.15</v>
       </c>
       <c r="B215" t="s">
         <v>3</v>
@@ -2091,7 +2091,7 @@
     </row>
     <row r="216" spans="1:2">
       <c r="A216">
-        <v>5.19</v>
+        <v>7.19</v>
       </c>
       <c r="B216" t="s">
         <v>0</v>
@@ -2099,82 +2099,82 @@
     </row>
     <row r="217" spans="1:2">
       <c r="A217">
-        <v>7.25</v>
+        <v>9.17</v>
       </c>
       <c r="B217" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218">
-        <v>5.14</v>
+        <v>5.17</v>
       </c>
       <c r="B218" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:2">
       <c r="A219">
-        <v>7.27</v>
+        <v>5.24</v>
       </c>
       <c r="B219" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:2">
       <c r="A220">
-        <v>9.07</v>
+        <v>5.1</v>
       </c>
       <c r="B220" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221">
-        <v>7.24</v>
+        <v>5.16</v>
       </c>
       <c r="B221" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222">
-        <v>4.17</v>
+        <v>5.16</v>
       </c>
       <c r="B222" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223">
-        <v>7.23</v>
+        <v>7.09</v>
       </c>
       <c r="B223" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224">
-        <v>9.16</v>
+        <v>7.25</v>
       </c>
       <c r="B224" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225">
-        <v>5.18</v>
+        <v>5.15</v>
       </c>
       <c r="B225" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226">
-        <v>5.31</v>
+        <v>5.17</v>
       </c>
       <c r="B226" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -2182,20 +2182,20 @@
         <v>5.17</v>
       </c>
       <c r="B227" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228">
-        <v>7.23</v>
+        <v>5.33</v>
       </c>
       <c r="B228" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:2">
       <c r="A229">
-        <v>5.19</v>
+        <v>7.09</v>
       </c>
       <c r="B229" t="s">
         <v>0</v>
@@ -2203,39 +2203,39 @@
     </row>
     <row r="230" spans="1:2">
       <c r="A230">
-        <v>5.15</v>
+        <v>11.17</v>
       </c>
       <c r="B230" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231">
-        <v>7.13</v>
+        <v>5.18</v>
       </c>
       <c r="B231" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232">
-        <v>7.17</v>
+        <v>5.24</v>
       </c>
       <c r="B232" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233">
-        <v>5.24</v>
+        <v>5.38</v>
       </c>
       <c r="B233" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:2">
       <c r="A234">
-        <v>5.1</v>
+        <v>7.17</v>
       </c>
       <c r="B234" t="s">
         <v>0</v>
@@ -2243,39 +2243,39 @@
     </row>
     <row r="235" spans="1:2">
       <c r="A235">
-        <v>7.23</v>
+        <v>5.08</v>
       </c>
       <c r="B235" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:2">
       <c r="A236">
-        <v>5.18</v>
+        <v>5.22</v>
       </c>
       <c r="B236" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237">
-        <v>5.12</v>
+        <v>5.19</v>
       </c>
       <c r="B237" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238">
-        <v>11.25</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="B238" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239">
-        <v>5.3</v>
+        <v>7.24</v>
       </c>
       <c r="B239" t="s">
         <v>0</v>
@@ -2283,7 +2283,7 @@
     </row>
     <row r="240" spans="1:2">
       <c r="A240">
-        <v>5.13</v>
+        <v>7.26</v>
       </c>
       <c r="B240" t="s">
         <v>0</v>
@@ -2291,23 +2291,23 @@
     </row>
     <row r="241" spans="1:2">
       <c r="A241">
-        <v>9.210000000000001</v>
+        <v>5.39</v>
       </c>
       <c r="B241" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242">
-        <v>7.11</v>
+        <v>7.18</v>
       </c>
       <c r="B242" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:2">
       <c r="A243">
-        <v>5.15</v>
+        <v>7.11</v>
       </c>
       <c r="B243" t="s">
         <v>0</v>
@@ -2315,15 +2315,15 @@
     </row>
     <row r="244" spans="1:2">
       <c r="A244">
-        <v>11.17</v>
+        <v>7.24</v>
       </c>
       <c r="B244" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245">
-        <v>5.3</v>
+        <v>7.08</v>
       </c>
       <c r="B245" t="s">
         <v>0</v>
@@ -2331,7 +2331,7 @@
     </row>
     <row r="246" spans="1:2">
       <c r="A246">
-        <v>5.18</v>
+        <v>7.17</v>
       </c>
       <c r="B246" t="s">
         <v>0</v>
@@ -2339,7 +2339,7 @@
     </row>
     <row r="247" spans="1:2">
       <c r="A247">
-        <v>5.27</v>
+        <v>7.19</v>
       </c>
       <c r="B247" t="s">
         <v>0</v>
@@ -2347,79 +2347,79 @@
     </row>
     <row r="248" spans="1:2">
       <c r="A248">
-        <v>7.24</v>
+        <v>7.16</v>
       </c>
       <c r="B248" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249">
-        <v>7.1</v>
+        <v>5.16</v>
       </c>
       <c r="B249" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250">
-        <v>5.31</v>
+        <v>5.1</v>
       </c>
       <c r="B250" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251">
-        <v>7.25</v>
+        <v>5.16</v>
       </c>
       <c r="B251" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:2">
       <c r="A252">
-        <v>7.24</v>
+        <v>5.24</v>
       </c>
       <c r="B252" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253">
-        <v>7.24</v>
+        <v>11.16</v>
       </c>
       <c r="B253" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254">
-        <v>5.18</v>
+        <v>5.22</v>
       </c>
       <c r="B254" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255">
-        <v>5.17</v>
+        <v>5.23</v>
       </c>
       <c r="B255" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256">
-        <v>7.11</v>
+        <v>7.24</v>
       </c>
       <c r="B256" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257">
-        <v>5.08</v>
+        <v>7.17</v>
       </c>
       <c r="B257" t="s">
         <v>0</v>
@@ -2427,39 +2427,39 @@
     </row>
     <row r="258" spans="1:2">
       <c r="A258">
-        <v>5.12</v>
+        <v>5.11</v>
       </c>
       <c r="B258" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259">
-        <v>5.2</v>
+        <v>5.11</v>
       </c>
       <c r="B259" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260" spans="1:2">
       <c r="A260">
-        <v>5.09</v>
+        <v>5.07</v>
       </c>
       <c r="B260" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261" spans="1:2">
       <c r="A261">
-        <v>5.23</v>
+        <v>5.16</v>
       </c>
       <c r="B261" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262" spans="1:2">
       <c r="A262">
-        <v>5.24</v>
+        <v>7.17</v>
       </c>
       <c r="B262" t="s">
         <v>0</v>
@@ -2467,47 +2467,47 @@
     </row>
     <row r="263" spans="1:2">
       <c r="A263">
-        <v>7.18</v>
+        <v>5.18</v>
       </c>
       <c r="B263" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264">
-        <v>7.32</v>
+        <v>5.24</v>
       </c>
       <c r="B264" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:2">
       <c r="A265">
-        <v>7.24</v>
+        <v>5.06</v>
       </c>
       <c r="B265" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266">
-        <v>7.11</v>
+        <v>5.29</v>
       </c>
       <c r="B266" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267" spans="1:2">
       <c r="A267">
-        <v>11.17</v>
+        <v>9.18</v>
       </c>
       <c r="B267" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="268" spans="1:2">
       <c r="A268">
-        <v>5.16</v>
+        <v>7.1</v>
       </c>
       <c r="B268" t="s">
         <v>0</v>
@@ -2515,55 +2515,55 @@
     </row>
     <row r="269" spans="1:2">
       <c r="A269">
-        <v>7.18</v>
+        <v>7.16</v>
       </c>
       <c r="B269" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270">
-        <v>9.1</v>
+        <v>7.16</v>
       </c>
       <c r="B270" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271">
-        <v>5.15</v>
+        <v>5.07</v>
       </c>
       <c r="B271" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272" spans="1:2">
       <c r="A272">
-        <v>7.11</v>
+        <v>5.1</v>
       </c>
       <c r="B272" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273" spans="1:2">
       <c r="A273">
-        <v>5.3</v>
+        <v>11.18</v>
       </c>
       <c r="B273" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="274" spans="1:2">
       <c r="A274">
-        <v>7.08</v>
+        <v>5.22</v>
       </c>
       <c r="B274" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275" spans="1:2">
       <c r="A275">
-        <v>5.24</v>
+        <v>7.15</v>
       </c>
       <c r="B275" t="s">
         <v>0</v>
@@ -2571,26 +2571,26 @@
     </row>
     <row r="276" spans="1:2">
       <c r="A276">
-        <v>7.22</v>
+        <v>7.14</v>
       </c>
       <c r="B276" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:2">
       <c r="A277">
-        <v>5.19</v>
+        <v>5.18</v>
       </c>
       <c r="B277" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278">
-        <v>5.16</v>
+        <v>5.17</v>
       </c>
       <c r="B278" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -2598,76 +2598,76 @@
         <v>7.19</v>
       </c>
       <c r="B279" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280">
-        <v>5.07</v>
+        <v>7.07</v>
       </c>
       <c r="B280" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281">
-        <v>7.21</v>
+        <v>7.24</v>
       </c>
       <c r="B281" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:2">
       <c r="A282">
-        <v>7.25</v>
+        <v>9.23</v>
       </c>
       <c r="B282" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="283" spans="1:2">
       <c r="A283">
-        <v>7.22</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="B283" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="284" spans="1:2">
       <c r="A284">
-        <v>7.18</v>
+        <v>5.15</v>
       </c>
       <c r="B284" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285">
-        <v>5.24</v>
+        <v>5.23</v>
       </c>
       <c r="B285" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286">
-        <v>7.15</v>
+        <v>5.25</v>
       </c>
       <c r="B286" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287">
-        <v>7.2</v>
+        <v>7.24</v>
       </c>
       <c r="B287" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288">
-        <v>5.31</v>
+        <v>7.21</v>
       </c>
       <c r="B288" t="s">
         <v>0</v>
@@ -2675,95 +2675,95 @@
     </row>
     <row r="289" spans="1:2">
       <c r="A289">
-        <v>9.15</v>
+        <v>7.23</v>
       </c>
       <c r="B289" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:2">
       <c r="A290">
-        <v>5.19</v>
+        <v>6.1</v>
       </c>
       <c r="B290" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:2">
       <c r="A291">
-        <v>5.09</v>
+        <v>5.16</v>
       </c>
       <c r="B291" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292" spans="1:2">
       <c r="A292">
-        <v>7.2</v>
+        <v>5.16</v>
       </c>
       <c r="B292" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293" spans="1:2">
       <c r="A293">
-        <v>7.22</v>
+        <v>5.29</v>
       </c>
       <c r="B293" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294" spans="1:2">
       <c r="A294">
-        <v>11.17</v>
+        <v>7.26</v>
       </c>
       <c r="B294" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:2">
       <c r="A295">
-        <v>5.2</v>
+        <v>5.22</v>
       </c>
       <c r="B295" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296" spans="1:2">
       <c r="A296">
-        <v>5.17</v>
+        <v>9.16</v>
       </c>
       <c r="B296" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="297" spans="1:2">
       <c r="A297">
-        <v>7.17</v>
+        <v>7.12</v>
       </c>
       <c r="B297" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:2">
       <c r="A298">
-        <v>5.3</v>
+        <v>5.16</v>
       </c>
       <c r="B298" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299" spans="1:2">
       <c r="A299">
-        <v>5.25</v>
+        <v>11.31</v>
       </c>
       <c r="B299" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="300" spans="1:2">
       <c r="A300">
-        <v>11.18</v>
+        <v>5.1</v>
       </c>
       <c r="B300" t="s">
         <v>1</v>
@@ -2771,23 +2771,23 @@
     </row>
     <row r="301" spans="1:2">
       <c r="A301">
-        <v>5.24</v>
+        <v>5.1</v>
       </c>
       <c r="B301" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302" spans="1:2">
       <c r="A302">
-        <v>9.24</v>
+        <v>7.39</v>
       </c>
       <c r="B302" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:2">
       <c r="A303">
-        <v>5.11</v>
+        <v>7.25</v>
       </c>
       <c r="B303" t="s">
         <v>0</v>
@@ -2795,15 +2795,15 @@
     </row>
     <row r="304" spans="1:2">
       <c r="A304">
-        <v>7.29</v>
+        <v>7.11</v>
       </c>
       <c r="B304" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:2">
       <c r="A305">
-        <v>5.1</v>
+        <v>7.23</v>
       </c>
       <c r="B305" t="s">
         <v>0</v>
@@ -2811,7 +2811,7 @@
     </row>
     <row r="306" spans="1:2">
       <c r="A306">
-        <v>5.09</v>
+        <v>7.17</v>
       </c>
       <c r="B306" t="s">
         <v>0</v>
@@ -2819,23 +2819,23 @@
     </row>
     <row r="307" spans="1:2">
       <c r="A307">
-        <v>7.18</v>
+        <v>5.1</v>
       </c>
       <c r="B307" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308" spans="1:2">
       <c r="A308">
-        <v>7.18</v>
+        <v>5.24</v>
       </c>
       <c r="B308" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309">
-        <v>5.19</v>
+        <v>7.16</v>
       </c>
       <c r="B309" t="s">
         <v>0</v>
@@ -2843,15 +2843,15 @@
     </row>
     <row r="310" spans="1:2">
       <c r="A310">
-        <v>5.09</v>
+        <v>5.15</v>
       </c>
       <c r="B310" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311" spans="1:2">
       <c r="A311">
-        <v>5.17</v>
+        <v>7.25</v>
       </c>
       <c r="B311" t="s">
         <v>0</v>
@@ -2859,7 +2859,7 @@
     </row>
     <row r="312" spans="1:2">
       <c r="A312">
-        <v>5.06</v>
+        <v>7.17</v>
       </c>
       <c r="B312" t="s">
         <v>0</v>
@@ -2867,47 +2867,47 @@
     </row>
     <row r="313" spans="1:2">
       <c r="A313">
-        <v>7.14</v>
+        <v>7.32</v>
       </c>
       <c r="B313" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:2">
       <c r="A314">
-        <v>7.15</v>
+        <v>5.11</v>
       </c>
       <c r="B314" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315" spans="1:2">
       <c r="A315">
-        <v>5.24</v>
+        <v>5.1</v>
       </c>
       <c r="B315" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316" spans="1:2">
       <c r="A316">
-        <v>5.16</v>
+        <v>5.31</v>
       </c>
       <c r="B316" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317" spans="1:2">
       <c r="A317">
-        <v>7.17</v>
+        <v>7.22</v>
       </c>
       <c r="B317" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:2">
       <c r="A318">
-        <v>5.24</v>
+        <v>7.17</v>
       </c>
       <c r="B318" t="s">
         <v>0</v>
@@ -2915,15 +2915,15 @@
     </row>
     <row r="319" spans="1:2">
       <c r="A319">
-        <v>9.24</v>
+        <v>5.16</v>
       </c>
       <c r="B319" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320">
-        <v>5.11</v>
+        <v>7.23</v>
       </c>
       <c r="B320" t="s">
         <v>0</v>
@@ -2931,15 +2931,15 @@
     </row>
     <row r="321" spans="1:2">
       <c r="A321">
-        <v>7.23</v>
+        <v>7.14</v>
       </c>
       <c r="B321" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="A322">
-        <v>5.23</v>
+        <v>7.11</v>
       </c>
       <c r="B322" t="s">
         <v>0</v>
@@ -2947,167 +2947,167 @@
     </row>
     <row r="323" spans="1:2">
       <c r="A323">
-        <v>5.12</v>
+        <v>5.16</v>
       </c>
       <c r="B323" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="A324">
-        <v>5.24</v>
+        <v>5.17</v>
       </c>
       <c r="B324" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325">
-        <v>7.09</v>
+        <v>5.07</v>
       </c>
       <c r="B325" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326">
-        <v>7.12</v>
+        <v>5.22</v>
       </c>
       <c r="B326" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327">
-        <v>5.24</v>
+        <v>5.09</v>
       </c>
       <c r="B327" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328">
-        <v>7.25</v>
+        <v>7.1</v>
       </c>
       <c r="B328" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:2">
       <c r="A329">
-        <v>7.15</v>
+        <v>5.25</v>
       </c>
       <c r="B329" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330" spans="1:2">
       <c r="A330">
-        <v>7.17</v>
+        <v>5.13</v>
       </c>
       <c r="B330" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331">
-        <v>7.3</v>
+        <v>9.18</v>
       </c>
       <c r="B331" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="332" spans="1:2">
       <c r="A332">
-        <v>5.32</v>
+        <v>5.27</v>
       </c>
       <c r="B332" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333">
-        <v>7.21</v>
+        <v>5.17</v>
       </c>
       <c r="B333" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334" spans="1:2">
       <c r="A334">
-        <v>5.17</v>
+        <v>5.31</v>
       </c>
       <c r="B334" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335" spans="1:2">
       <c r="A335">
-        <v>5.12</v>
+        <v>5.18</v>
       </c>
       <c r="B335" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336" spans="1:2">
       <c r="A336">
-        <v>7.13</v>
+        <v>7.33</v>
       </c>
       <c r="B336" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:2">
       <c r="A337">
-        <v>7.15</v>
+        <v>7.31</v>
       </c>
       <c r="B337" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:2">
       <c r="A338">
-        <v>5.25</v>
+        <v>5.23</v>
       </c>
       <c r="B338" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339" spans="1:2">
       <c r="A339">
-        <v>5.31</v>
+        <v>5.24</v>
       </c>
       <c r="B339" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340" spans="1:2">
       <c r="A340">
-        <v>7.19</v>
+        <v>5.08</v>
       </c>
       <c r="B340" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341" spans="1:2">
       <c r="A341">
-        <v>7.25</v>
+        <v>7.17</v>
       </c>
       <c r="B341" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:2">
       <c r="A342">
-        <v>7.24</v>
+        <v>5.24</v>
       </c>
       <c r="B342" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343" spans="1:2">
       <c r="A343">
-        <v>5.16</v>
+        <v>7.25</v>
       </c>
       <c r="B343" t="s">
         <v>0</v>
@@ -3115,15 +3115,15 @@
     </row>
     <row r="344" spans="1:2">
       <c r="A344">
-        <v>7.09</v>
+        <v>7.1</v>
       </c>
       <c r="B344" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:2">
       <c r="A345">
-        <v>5.17</v>
+        <v>7.1</v>
       </c>
       <c r="B345" t="s">
         <v>0</v>
@@ -3131,31 +3131,31 @@
     </row>
     <row r="346" spans="1:2">
       <c r="A346">
-        <v>5.1</v>
+        <v>5.29</v>
       </c>
       <c r="B346" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347" spans="1:2">
       <c r="A347">
-        <v>9.1</v>
+        <v>5.09</v>
       </c>
       <c r="B347" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348" spans="1:2">
       <c r="A348">
-        <v>7.18</v>
+        <v>7.25</v>
       </c>
       <c r="B348" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:2">
       <c r="A349">
-        <v>5.18</v>
+        <v>7.12</v>
       </c>
       <c r="B349" t="s">
         <v>0</v>
@@ -3163,39 +3163,39 @@
     </row>
     <row r="350" spans="1:2">
       <c r="A350">
-        <v>7.19</v>
+        <v>5.25</v>
       </c>
       <c r="B350" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="351" spans="1:2">
       <c r="A351">
-        <v>9.1</v>
+        <v>7.23</v>
       </c>
       <c r="B351" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:2">
       <c r="A352">
-        <v>7.16</v>
+        <v>7.12</v>
       </c>
       <c r="B352" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:2">
       <c r="A353">
-        <v>5.22</v>
+        <v>5.11</v>
       </c>
       <c r="B353" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="354" spans="1:2">
       <c r="A354">
-        <v>5.23</v>
+        <v>7.3</v>
       </c>
       <c r="B354" t="s">
         <v>0</v>
@@ -3206,68 +3206,68 @@
         <v>5.17</v>
       </c>
       <c r="B355" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="356" spans="1:2">
       <c r="A356">
-        <v>7.1</v>
+        <v>5.19</v>
       </c>
       <c r="B356" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="357" spans="1:2">
       <c r="A357">
-        <v>5.18</v>
+        <v>5.09</v>
       </c>
       <c r="B357" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="358" spans="1:2">
       <c r="A358">
-        <v>7.2</v>
+        <v>11.24</v>
       </c>
       <c r="B358" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="359" spans="1:2">
       <c r="A359">
-        <v>7.24</v>
+        <v>7.11</v>
       </c>
       <c r="B359" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:2">
       <c r="A360">
-        <v>5.12</v>
+        <v>5.26</v>
       </c>
       <c r="B360" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="361" spans="1:2">
       <c r="A361">
-        <v>5.24</v>
+        <v>5.3</v>
       </c>
       <c r="B361" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362" spans="1:2">
       <c r="A362">
-        <v>7.24</v>
+        <v>5.06</v>
       </c>
       <c r="B362" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="363" spans="1:2">
       <c r="A363">
-        <v>5.17</v>
+        <v>7.17</v>
       </c>
       <c r="B363" t="s">
         <v>0</v>
@@ -3275,23 +3275,23 @@
     </row>
     <row r="364" spans="1:2">
       <c r="A364">
-        <v>7.26</v>
+        <v>5.11</v>
       </c>
       <c r="B364" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="365" spans="1:2">
       <c r="A365">
-        <v>7.12</v>
+        <v>5.11</v>
       </c>
       <c r="B365" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="366" spans="1:2">
       <c r="A366">
-        <v>5.22</v>
+        <v>7.29</v>
       </c>
       <c r="B366" t="s">
         <v>0</v>
@@ -3299,7 +3299,7 @@
     </row>
     <row r="367" spans="1:2">
       <c r="A367">
-        <v>5.18</v>
+        <v>7.15</v>
       </c>
       <c r="B367" t="s">
         <v>0</v>
@@ -3307,31 +3307,31 @@
     </row>
     <row r="368" spans="1:2">
       <c r="A368">
-        <v>7.16</v>
+        <v>5.14</v>
       </c>
       <c r="B368" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="369" spans="1:2">
       <c r="A369">
-        <v>11.18</v>
+        <v>7.16</v>
       </c>
       <c r="B369" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:2">
       <c r="A370">
-        <v>7.23</v>
+        <v>5.16</v>
       </c>
       <c r="B370" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="371" spans="1:2">
       <c r="A371">
-        <v>5.26</v>
+        <v>7.31</v>
       </c>
       <c r="B371" t="s">
         <v>0</v>
@@ -3339,7 +3339,7 @@
     </row>
     <row r="372" spans="1:2">
       <c r="A372">
-        <v>5.16</v>
+        <v>7.17</v>
       </c>
       <c r="B372" t="s">
         <v>0</v>
@@ -3347,71 +3347,71 @@
     </row>
     <row r="373" spans="1:2">
       <c r="A373">
-        <v>5.18</v>
+        <v>5.12</v>
       </c>
       <c r="B373" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="374" spans="1:2">
       <c r="A374">
-        <v>5.17</v>
+        <v>5.24</v>
       </c>
       <c r="B374" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="375" spans="1:2">
       <c r="A375">
-        <v>7.11</v>
+        <v>7.19</v>
       </c>
       <c r="B375" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:2">
       <c r="A376">
-        <v>7.17</v>
+        <v>7.1</v>
       </c>
       <c r="B376" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:2">
       <c r="A377">
-        <v>7.25</v>
+        <v>5.24</v>
       </c>
       <c r="B377" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="378" spans="1:2">
       <c r="A378">
-        <v>5.15</v>
+        <v>5.23</v>
       </c>
       <c r="B378" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="379" spans="1:2">
       <c r="A379">
-        <v>5.23</v>
+        <v>5.1</v>
       </c>
       <c r="B379" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380" spans="1:2">
       <c r="A380">
-        <v>7.16</v>
+        <v>5.24</v>
       </c>
       <c r="B380" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="381" spans="1:2">
       <c r="A381">
-        <v>5.26</v>
+        <v>7.09</v>
       </c>
       <c r="B381" t="s">
         <v>0</v>
@@ -3419,7 +3419,7 @@
     </row>
     <row r="382" spans="1:2">
       <c r="A382">
-        <v>5.24</v>
+        <v>7.17</v>
       </c>
       <c r="B382" t="s">
         <v>0</v>
@@ -3427,7 +3427,7 @@
     </row>
     <row r="383" spans="1:2">
       <c r="A383">
-        <v>11.3</v>
+        <v>5.23</v>
       </c>
       <c r="B383" t="s">
         <v>1</v>
@@ -3435,23 +3435,23 @@
     </row>
     <row r="384" spans="1:2">
       <c r="A384">
-        <v>7.3</v>
+        <v>5.18</v>
       </c>
       <c r="B384" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="385" spans="1:2">
       <c r="A385">
-        <v>7.16</v>
+        <v>9.17</v>
       </c>
       <c r="B385" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="386" spans="1:2">
       <c r="A386">
-        <v>5.17</v>
+        <v>7.29</v>
       </c>
       <c r="B386" t="s">
         <v>0</v>
@@ -3459,23 +3459,23 @@
     </row>
     <row r="387" spans="1:2">
       <c r="A387">
-        <v>7.25</v>
+        <v>5.25</v>
       </c>
       <c r="B387" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="388" spans="1:2">
       <c r="A388">
-        <v>5.17</v>
+        <v>5.18</v>
       </c>
       <c r="B388" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="389" spans="1:2">
       <c r="A389">
-        <v>5.25</v>
+        <v>7.13</v>
       </c>
       <c r="B389" t="s">
         <v>0</v>
@@ -3483,7 +3483,7 @@
     </row>
     <row r="390" spans="1:2">
       <c r="A390">
-        <v>5.25</v>
+        <v>7.24</v>
       </c>
       <c r="B390" t="s">
         <v>0</v>
@@ -3491,10 +3491,10 @@
     </row>
     <row r="391" spans="1:2">
       <c r="A391">
-        <v>7.18</v>
+        <v>5.12</v>
       </c>
       <c r="B391" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="392" spans="1:2">
@@ -3502,36 +3502,36 @@
         <v>5.17</v>
       </c>
       <c r="B392" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="393" spans="1:2">
       <c r="A393">
-        <v>7.12</v>
+        <v>5.14</v>
       </c>
       <c r="B393" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="394" spans="1:2">
       <c r="A394">
-        <v>7.24</v>
+        <v>7.16</v>
       </c>
       <c r="B394" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:2">
       <c r="A395">
-        <v>7.37</v>
+        <v>5.22</v>
       </c>
       <c r="B395" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="396" spans="1:2">
       <c r="A396">
-        <v>5.15</v>
+        <v>7.16</v>
       </c>
       <c r="B396" t="s">
         <v>0</v>
@@ -3539,47 +3539,47 @@
     </row>
     <row r="397" spans="1:2">
       <c r="A397">
-        <v>5.15</v>
+        <v>5.25</v>
       </c>
       <c r="B397" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="398" spans="1:2">
       <c r="A398">
-        <v>7.08</v>
+        <v>7.25</v>
       </c>
       <c r="B398" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:2">
       <c r="A399">
-        <v>7.16</v>
+        <v>7.09</v>
       </c>
       <c r="B399" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:2">
       <c r="A400">
-        <v>7.1</v>
+        <v>7.24</v>
       </c>
       <c r="B400" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:2">
       <c r="A401">
-        <v>7.18</v>
+        <v>5.2</v>
       </c>
       <c r="B401" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="402" spans="1:2">
       <c r="A402">
-        <v>5.19</v>
+        <v>7.17</v>
       </c>
       <c r="B402" t="s">
         <v>0</v>
@@ -3587,10 +3587,10 @@
     </row>
     <row r="403" spans="1:2">
       <c r="A403">
-        <v>7.25</v>
+        <v>5.17</v>
       </c>
       <c r="B403" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="404" spans="1:2">
@@ -3598,44 +3598,44 @@
         <v>5.17</v>
       </c>
       <c r="B404" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="405" spans="1:2">
       <c r="A405">
-        <v>5.16</v>
+        <v>5.31</v>
       </c>
       <c r="B405" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="406" spans="1:2">
       <c r="A406">
-        <v>7.19</v>
+        <v>7.26</v>
       </c>
       <c r="B406" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:2">
       <c r="A407">
-        <v>5.18</v>
+        <v>5.25</v>
       </c>
       <c r="B407" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="408" spans="1:2">
       <c r="A408">
-        <v>7.24</v>
+        <v>5.19</v>
       </c>
       <c r="B408" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="409" spans="1:2">
       <c r="A409">
-        <v>5.15</v>
+        <v>7.25</v>
       </c>
       <c r="B409" t="s">
         <v>0</v>
@@ -3643,39 +3643,39 @@
     </row>
     <row r="410" spans="1:2">
       <c r="A410">
-        <v>7.16</v>
+        <v>11.32</v>
       </c>
       <c r="B410" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="411" spans="1:2">
       <c r="A411">
-        <v>7.18</v>
+        <v>5.22</v>
       </c>
       <c r="B411" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="412" spans="1:2">
       <c r="A412">
-        <v>9.31</v>
+        <v>7.3</v>
       </c>
       <c r="B412" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:2">
       <c r="A413">
-        <v>7.18</v>
+        <v>5.1</v>
       </c>
       <c r="B413" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="414" spans="1:2">
       <c r="A414">
-        <v>5.25</v>
+        <v>7.11</v>
       </c>
       <c r="B414" t="s">
         <v>0</v>
@@ -3683,31 +3683,31 @@
     </row>
     <row r="415" spans="1:2">
       <c r="A415">
-        <v>5.1</v>
+        <v>5.08</v>
       </c>
       <c r="B415" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="416" spans="1:2">
       <c r="A416">
-        <v>5.19</v>
+        <v>5.08</v>
       </c>
       <c r="B416" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="417" spans="1:2">
       <c r="A417">
-        <v>5.11</v>
+        <v>5.39</v>
       </c>
       <c r="B417" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="418" spans="1:2">
       <c r="A418">
-        <v>5.38</v>
+        <v>7.24</v>
       </c>
       <c r="B418" t="s">
         <v>0</v>
@@ -3715,7 +3715,7 @@
     </row>
     <row r="419" spans="1:2">
       <c r="A419">
-        <v>11.32</v>
+        <v>5.29</v>
       </c>
       <c r="B419" t="s">
         <v>1</v>
@@ -3723,23 +3723,23 @@
     </row>
     <row r="420" spans="1:2">
       <c r="A420">
-        <v>5.17</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="B420" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="421" spans="1:2">
       <c r="A421">
-        <v>7.32</v>
+        <v>9.09</v>
       </c>
       <c r="B421" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="422" spans="1:2">
       <c r="A422">
-        <v>5.16</v>
+        <v>7.26</v>
       </c>
       <c r="B422" t="s">
         <v>0</v>
@@ -3747,15 +3747,15 @@
     </row>
     <row r="423" spans="1:2">
       <c r="A423">
-        <v>7.24</v>
+        <v>5.16</v>
       </c>
       <c r="B423" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="424" spans="1:2">
       <c r="A424">
-        <v>5.1</v>
+        <v>7.18</v>
       </c>
       <c r="B424" t="s">
         <v>0</v>
@@ -3763,39 +3763,39 @@
     </row>
     <row r="425" spans="1:2">
       <c r="A425">
-        <v>7.26</v>
+        <v>7.23</v>
       </c>
       <c r="B425" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:2">
       <c r="A426">
-        <v>5.16</v>
+        <v>5.2</v>
       </c>
       <c r="B426" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="427" spans="1:2">
       <c r="A427">
-        <v>5.19</v>
+        <v>5.29</v>
       </c>
       <c r="B427" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="428" spans="1:2">
       <c r="A428">
-        <v>5.13</v>
+        <v>5.12</v>
       </c>
       <c r="B428" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="429" spans="1:2">
       <c r="A429">
-        <v>5.29</v>
+        <v>7.18</v>
       </c>
       <c r="B429" t="s">
         <v>0</v>
@@ -3803,55 +3803,55 @@
     </row>
     <row r="430" spans="1:2">
       <c r="A430">
-        <v>7.25</v>
+        <v>5.25</v>
       </c>
       <c r="B430" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="431" spans="1:2">
       <c r="A431">
-        <v>7.16</v>
+        <v>7.09</v>
       </c>
       <c r="B431" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:2">
       <c r="A432">
-        <v>7.24</v>
+        <v>5.19</v>
       </c>
       <c r="B432" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="433" spans="1:2">
       <c r="A433">
-        <v>5.15</v>
+        <v>5.18</v>
       </c>
       <c r="B433" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="434" spans="1:2">
       <c r="A434">
-        <v>7.1</v>
+        <v>7.17</v>
       </c>
       <c r="B434" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:2">
       <c r="A435">
-        <v>7.09</v>
+        <v>7.3</v>
       </c>
       <c r="B435" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:2">
       <c r="A436">
-        <v>5.23</v>
+        <v>7.17</v>
       </c>
       <c r="B436" t="s">
         <v>0</v>
@@ -3859,7 +3859,7 @@
     </row>
     <row r="437" spans="1:2">
       <c r="A437">
-        <v>5.31</v>
+        <v>7.15</v>
       </c>
       <c r="B437" t="s">
         <v>0</v>
@@ -3867,15 +3867,15 @@
     </row>
     <row r="438" spans="1:2">
       <c r="A438">
-        <v>7.25</v>
+        <v>5.19</v>
       </c>
       <c r="B438" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="439" spans="1:2">
       <c r="A439">
-        <v>5.26</v>
+        <v>7.11</v>
       </c>
       <c r="B439" t="s">
         <v>0</v>
@@ -3883,23 +3883,23 @@
     </row>
     <row r="440" spans="1:2">
       <c r="A440">
-        <v>7.23</v>
+        <v>5.11</v>
       </c>
       <c r="B440" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="441" spans="1:2">
       <c r="A441">
-        <v>4.17</v>
+        <v>9.24</v>
       </c>
       <c r="B441" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="442" spans="1:2">
       <c r="A442">
-        <v>5.22</v>
+        <v>7.07</v>
       </c>
       <c r="B442" t="s">
         <v>0</v>
@@ -3907,55 +3907,55 @@
     </row>
     <row r="443" spans="1:2">
       <c r="A443">
-        <v>5.16</v>
+        <v>5.15</v>
       </c>
       <c r="B443" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="444" spans="1:2">
       <c r="A444">
-        <v>5.33</v>
+        <v>5.24</v>
       </c>
       <c r="B444" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="445" spans="1:2">
       <c r="A445">
-        <v>9.25</v>
+        <v>5.25</v>
       </c>
       <c r="B445" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="446" spans="1:2">
       <c r="A446">
-        <v>7.39</v>
+        <v>7.15</v>
       </c>
       <c r="B446" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447" spans="1:2">
       <c r="A447">
-        <v>5.2</v>
+        <v>5.16</v>
       </c>
       <c r="B447" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="448" spans="1:2">
       <c r="A448">
-        <v>7.16</v>
+        <v>7.22</v>
       </c>
       <c r="B448" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:2">
       <c r="A449">
-        <v>5.29</v>
+        <v>7.09</v>
       </c>
       <c r="B449" t="s">
         <v>0</v>
@@ -3963,7 +3963,7 @@
     </row>
     <row r="450" spans="1:2">
       <c r="A450">
-        <v>4.24</v>
+        <v>7.17</v>
       </c>
       <c r="B450" t="s">
         <v>0</v>
@@ -3971,34 +3971,34 @@
     </row>
     <row r="451" spans="1:2">
       <c r="A451">
-        <v>9.18</v>
+        <v>7.19</v>
       </c>
       <c r="B451" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:2">
       <c r="A452">
-        <v>7.23</v>
+        <v>5.1</v>
       </c>
       <c r="B452" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="453" spans="1:2">
       <c r="A453">
-        <v>7.19</v>
+        <v>5.22</v>
       </c>
       <c r="B453" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="454" spans="1:2">
       <c r="A454">
-        <v>5.16</v>
+        <v>11.18</v>
       </c>
       <c r="B454" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="455" spans="1:2">
@@ -4006,12 +4006,12 @@
         <v>7.11</v>
       </c>
       <c r="B455" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:2">
       <c r="A456">
-        <v>5.3</v>
+        <v>7.09</v>
       </c>
       <c r="B456" t="s">
         <v>0</v>
@@ -4019,31 +4019,31 @@
     </row>
     <row r="457" spans="1:2">
       <c r="A457">
-        <v>7.24</v>
+        <v>5.24</v>
       </c>
       <c r="B457" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="458" spans="1:2">
       <c r="A458">
-        <v>7.23</v>
+        <v>7.17</v>
       </c>
       <c r="B458" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:2">
       <c r="A459">
-        <v>5.17</v>
+        <v>5.2</v>
       </c>
       <c r="B459" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="460" spans="1:2">
       <c r="A460">
-        <v>5.26</v>
+        <v>7.18</v>
       </c>
       <c r="B460" t="s">
         <v>0</v>
@@ -4051,15 +4051,15 @@
     </row>
     <row r="461" spans="1:2">
       <c r="A461">
-        <v>5.27</v>
+        <v>5.17</v>
       </c>
       <c r="B461" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="462" spans="1:2">
       <c r="A462">
-        <v>5.17</v>
+        <v>7.19</v>
       </c>
       <c r="B462" t="s">
         <v>0</v>
@@ -4067,47 +4067,47 @@
     </row>
     <row r="463" spans="1:2">
       <c r="A463">
-        <v>4.24</v>
+        <v>5.15</v>
       </c>
       <c r="B463" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="464" spans="1:2">
       <c r="A464">
-        <v>7.16</v>
+        <v>5.07</v>
       </c>
       <c r="B464" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="465" spans="1:2">
       <c r="A465">
-        <v>5.18</v>
+        <v>5.3</v>
       </c>
       <c r="B465" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="466" spans="1:2">
       <c r="A466">
-        <v>5.18</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="B466" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="467" spans="1:2">
       <c r="A467">
-        <v>7.22</v>
+        <v>5.19</v>
       </c>
       <c r="B467" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="468" spans="1:2">
       <c r="A468">
-        <v>5.06</v>
+        <v>7.25</v>
       </c>
       <c r="B468" t="s">
         <v>0</v>
@@ -4115,47 +4115,47 @@
     </row>
     <row r="469" spans="1:2">
       <c r="A469">
-        <v>5.16</v>
+        <v>5.14</v>
       </c>
       <c r="B469" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="470" spans="1:2">
       <c r="A470">
-        <v>11.19</v>
+        <v>7.27</v>
       </c>
       <c r="B470" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471" spans="1:2">
       <c r="A471">
-        <v>5.12</v>
+        <v>9.07</v>
       </c>
       <c r="B471" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="472" spans="1:2">
       <c r="A472">
-        <v>7.16</v>
+        <v>7.24</v>
       </c>
       <c r="B472" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473" spans="1:2">
       <c r="A473">
-        <v>7.14</v>
+        <v>5.17</v>
       </c>
       <c r="B473" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="474" spans="1:2">
       <c r="A474">
-        <v>5.21</v>
+        <v>7.23</v>
       </c>
       <c r="B474" t="s">
         <v>0</v>
@@ -4163,7 +4163,7 @@
     </row>
     <row r="475" spans="1:2">
       <c r="A475">
-        <v>9.24</v>
+        <v>9.16</v>
       </c>
       <c r="B475" t="s">
         <v>3</v>
@@ -4171,7 +4171,7 @@
     </row>
     <row r="476" spans="1:2">
       <c r="A476">
-        <v>11.24</v>
+        <v>5.18</v>
       </c>
       <c r="B476" t="s">
         <v>1</v>
@@ -4179,23 +4179,23 @@
     </row>
     <row r="477" spans="1:2">
       <c r="A477">
-        <v>5.18</v>
+        <v>5.31</v>
       </c>
       <c r="B477" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="478" spans="1:2">
       <c r="A478">
-        <v>7.31</v>
+        <v>5.17</v>
       </c>
       <c r="B478" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="479" spans="1:2">
       <c r="A479">
-        <v>5.18</v>
+        <v>7.23</v>
       </c>
       <c r="B479" t="s">
         <v>0</v>
@@ -4203,71 +4203,71 @@
     </row>
     <row r="480" spans="1:2">
       <c r="A480">
-        <v>7.17</v>
+        <v>5.19</v>
       </c>
       <c r="B480" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="481" spans="1:2">
       <c r="A481">
-        <v>7.24</v>
+        <v>5.15</v>
       </c>
       <c r="B481" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="482" spans="1:2">
       <c r="A482">
-        <v>7.26</v>
+        <v>7.13</v>
       </c>
       <c r="B482" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483" spans="1:2">
       <c r="A483">
-        <v>7.15</v>
+        <v>7.17</v>
       </c>
       <c r="B483" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484" spans="1:2">
       <c r="A484">
-        <v>5.22</v>
+        <v>5.24</v>
       </c>
       <c r="B484" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="485" spans="1:2">
       <c r="A485">
-        <v>7.16</v>
+        <v>5.1</v>
       </c>
       <c r="B485" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="486" spans="1:2">
       <c r="A486">
-        <v>7.18</v>
+        <v>7.23</v>
       </c>
       <c r="B486" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487" spans="1:2">
       <c r="A487">
-        <v>7.19</v>
+        <v>5.18</v>
       </c>
       <c r="B487" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="488" spans="1:2">
       <c r="A488">
-        <v>11.19</v>
+        <v>5.12</v>
       </c>
       <c r="B488" t="s">
         <v>1</v>
@@ -4275,39 +4275,39 @@
     </row>
     <row r="489" spans="1:2">
       <c r="A489">
-        <v>5.17</v>
+        <v>11.25</v>
       </c>
       <c r="B489" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="490" spans="1:2">
       <c r="A490">
-        <v>5.24</v>
+        <v>5.3</v>
       </c>
       <c r="B490" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="491" spans="1:2">
       <c r="A491">
-        <v>5.16</v>
+        <v>5.13</v>
       </c>
       <c r="B491" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="492" spans="1:2">
       <c r="A492">
-        <v>11.24</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="B492" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="493" spans="1:2">
       <c r="A493">
-        <v>5.18</v>
+        <v>7.11</v>
       </c>
       <c r="B493" t="s">
         <v>0</v>
@@ -4315,50 +4315,50 @@
     </row>
     <row r="494" spans="1:2">
       <c r="A494">
-        <v>5.11</v>
+        <v>5.15</v>
       </c>
       <c r="B494" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="495" spans="1:2">
       <c r="A495">
-        <v>9.17</v>
+        <v>11.17</v>
       </c>
       <c r="B495" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="496" spans="1:2">
       <c r="A496">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="B496" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="497" spans="1:2">
       <c r="A497">
-        <v>7.18</v>
+        <v>5.18</v>
       </c>
       <c r="B497" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="498" spans="1:2">
       <c r="A498">
-        <v>7.18</v>
+        <v>5.27</v>
       </c>
       <c r="B498" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="499" spans="1:2">
       <c r="A499">
-        <v>7.23</v>
+        <v>7.24</v>
       </c>
       <c r="B499" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="500" spans="1:2">
@@ -4366,20 +4366,20 @@
         <v>7.1</v>
       </c>
       <c r="B500" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="501" spans="1:2">
       <c r="A501">
-        <v>7.18</v>
+        <v>5.31</v>
       </c>
       <c r="B501" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="502" spans="1:2">
       <c r="A502">
-        <v>5.31</v>
+        <v>7.25</v>
       </c>
       <c r="B502" t="s">
         <v>0</v>
@@ -4387,39 +4387,39 @@
     </row>
     <row r="503" spans="1:2">
       <c r="A503">
-        <v>9.16</v>
+        <v>7.24</v>
       </c>
       <c r="B503" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504" spans="1:2">
       <c r="A504">
-        <v>7.2</v>
+        <v>7.24</v>
       </c>
       <c r="B504" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505" spans="1:2">
       <c r="A505">
-        <v>4.07</v>
+        <v>8.18</v>
       </c>
       <c r="B505" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="506" spans="1:2">
       <c r="A506">
-        <v>7.1</v>
+        <v>5.17</v>
       </c>
       <c r="B506" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="507" spans="1:2">
       <c r="A507">
-        <v>5.23</v>
+        <v>7.11</v>
       </c>
       <c r="B507" t="s">
         <v>0</v>
@@ -4427,79 +4427,79 @@
     </row>
     <row r="508" spans="1:2">
       <c r="A508">
-        <v>5.16</v>
+        <v>5.08</v>
       </c>
       <c r="B508" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="509" spans="1:2">
       <c r="A509">
-        <v>7.15</v>
+        <v>5.12</v>
       </c>
       <c r="B509" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="510" spans="1:2">
       <c r="A510">
-        <v>5.16</v>
+        <v>5.2</v>
       </c>
       <c r="B510" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="511" spans="1:2">
       <c r="A511">
-        <v>5.16</v>
+        <v>5.09</v>
       </c>
       <c r="B511" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="512" spans="1:2">
       <c r="A512">
-        <v>5.19</v>
+        <v>5.23</v>
       </c>
       <c r="B512" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="513" spans="1:2">
       <c r="A513">
-        <v>5.09</v>
+        <v>5.24</v>
       </c>
       <c r="B513" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="514" spans="1:2">
       <c r="A514">
-        <v>7.16</v>
+        <v>7.18</v>
       </c>
       <c r="B514" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="515" spans="1:2">
       <c r="A515">
-        <v>7.24</v>
+        <v>7.32</v>
       </c>
       <c r="B515" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516" spans="1:2">
       <c r="A516">
-        <v>7.25</v>
+        <v>7.24</v>
       </c>
       <c r="B516" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="517" spans="1:2">
       <c r="A517">
-        <v>5.16</v>
+        <v>7.11</v>
       </c>
       <c r="B517" t="s">
         <v>0</v>
@@ -4507,23 +4507,23 @@
     </row>
     <row r="518" spans="1:2">
       <c r="A518">
-        <v>7.15</v>
+        <v>11.17</v>
       </c>
       <c r="B518" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="519" spans="1:2">
       <c r="A519">
-        <v>9.15</v>
+        <v>5.16</v>
       </c>
       <c r="B519" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="520" spans="1:2">
       <c r="A520">
-        <v>5.16</v>
+        <v>7.18</v>
       </c>
       <c r="B520" t="s">
         <v>0</v>
@@ -4531,23 +4531,23 @@
     </row>
     <row r="521" spans="1:2">
       <c r="A521">
-        <v>5.32</v>
+        <v>9.1</v>
       </c>
       <c r="B521" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="522" spans="1:2">
       <c r="A522">
-        <v>4.16</v>
+        <v>5.15</v>
       </c>
       <c r="B522" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="523" spans="1:2">
       <c r="A523">
-        <v>5.1</v>
+        <v>7.11</v>
       </c>
       <c r="B523" t="s">
         <v>0</v>
@@ -4555,55 +4555,55 @@
     </row>
     <row r="524" spans="1:2">
       <c r="A524">
-        <v>7.1</v>
+        <v>5.3</v>
       </c>
       <c r="B524" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="525" spans="1:2">
       <c r="A525">
-        <v>7.26</v>
+        <v>7.08</v>
       </c>
       <c r="B525" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="526" spans="1:2">
       <c r="A526">
-        <v>5.16</v>
+        <v>5.24</v>
       </c>
       <c r="B526" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="527" spans="1:2">
       <c r="A527">
-        <v>7.18</v>
+        <v>7.22</v>
       </c>
       <c r="B527" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="528" spans="1:2">
       <c r="A528">
-        <v>9.16</v>
+        <v>5.19</v>
       </c>
       <c r="B528" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="529" spans="1:2">
       <c r="A529">
-        <v>7.23</v>
+        <v>5.16</v>
       </c>
       <c r="B529" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="530" spans="1:2">
       <c r="A530">
-        <v>5.33</v>
+        <v>7.19</v>
       </c>
       <c r="B530" t="s">
         <v>0</v>
@@ -4611,23 +4611,23 @@
     </row>
     <row r="531" spans="1:2">
       <c r="A531">
-        <v>7.17</v>
+        <v>8.07</v>
       </c>
       <c r="B531" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="532" spans="1:2">
       <c r="A532">
-        <v>7.18</v>
+        <v>7.21</v>
       </c>
       <c r="B532" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="533" spans="1:2">
       <c r="A533">
-        <v>5.25</v>
+        <v>7.25</v>
       </c>
       <c r="B533" t="s">
         <v>0</v>
@@ -4635,15 +4635,15 @@
     </row>
     <row r="534" spans="1:2">
       <c r="A534">
-        <v>7.24</v>
+        <v>7.22</v>
       </c>
       <c r="B534" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="535" spans="1:2">
       <c r="A535">
-        <v>5.19</v>
+        <v>7.18</v>
       </c>
       <c r="B535" t="s">
         <v>0</v>
@@ -4651,23 +4651,23 @@
     </row>
     <row r="536" spans="1:2">
       <c r="A536">
-        <v>7.32</v>
+        <v>5.24</v>
       </c>
       <c r="B536" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="537" spans="1:2">
       <c r="A537">
-        <v>7.19</v>
+        <v>7.15</v>
       </c>
       <c r="B537" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="538" spans="1:2">
       <c r="A538">
-        <v>5.24</v>
+        <v>7.2</v>
       </c>
       <c r="B538" t="s">
         <v>0</v>
@@ -4675,39 +4675,39 @@
     </row>
     <row r="539" spans="1:2">
       <c r="A539">
-        <v>7.2</v>
+        <v>5.31</v>
       </c>
       <c r="B539" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="540" spans="1:2">
       <c r="A540">
-        <v>5.16</v>
+        <v>9.15</v>
       </c>
       <c r="B540" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="541" spans="1:2">
       <c r="A541">
-        <v>7.31</v>
+        <v>5.19</v>
       </c>
       <c r="B541" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="542" spans="1:2">
       <c r="A542">
-        <v>5.13</v>
+        <v>5.09</v>
       </c>
       <c r="B542" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="543" spans="1:2">
       <c r="A543">
-        <v>5.32</v>
+        <v>7.2</v>
       </c>
       <c r="B543" t="s">
         <v>0</v>
@@ -4715,7 +4715,7 @@
     </row>
     <row r="544" spans="1:2">
       <c r="A544">
-        <v>5.23</v>
+        <v>7.22</v>
       </c>
       <c r="B544" t="s">
         <v>0</v>
@@ -4723,31 +4723,31 @@
     </row>
     <row r="545" spans="1:2">
       <c r="A545">
-        <v>7.17</v>
+        <v>11.17</v>
       </c>
       <c r="B545" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="546" spans="1:2">
       <c r="A546">
-        <v>5.24</v>
+        <v>5.2</v>
       </c>
       <c r="B546" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="547" spans="1:2">
       <c r="A547">
-        <v>7.25</v>
+        <v>5.17</v>
       </c>
       <c r="B547" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="548" spans="1:2">
       <c r="A548">
-        <v>5.1</v>
+        <v>7.17</v>
       </c>
       <c r="B548" t="s">
         <v>0</v>
@@ -4755,55 +4755,55 @@
     </row>
     <row r="549" spans="1:2">
       <c r="A549">
-        <v>5.25</v>
+        <v>5.3</v>
       </c>
       <c r="B549" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="550" spans="1:2">
       <c r="A550">
-        <v>5.19</v>
+        <v>5.25</v>
       </c>
       <c r="B550" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="551" spans="1:2">
       <c r="A551">
-        <v>5.18</v>
+        <v>11.18</v>
       </c>
       <c r="B551" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="552" spans="1:2">
       <c r="A552">
-        <v>5.25</v>
+        <v>5.24</v>
       </c>
       <c r="B552" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="553" spans="1:2">
       <c r="A553">
-        <v>5.1</v>
+        <v>9.24</v>
       </c>
       <c r="B553" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="554" spans="1:2">
       <c r="A554">
-        <v>7.15</v>
+        <v>5.11</v>
       </c>
       <c r="B554" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="555" spans="1:2">
       <c r="A555">
-        <v>5.39</v>
+        <v>7.29</v>
       </c>
       <c r="B555" t="s">
         <v>0</v>
@@ -4814,20 +4814,20 @@
         <v>5.1</v>
       </c>
       <c r="B556" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="557" spans="1:2">
       <c r="A557">
-        <v>5.18</v>
+        <v>5.09</v>
       </c>
       <c r="B557" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="558" spans="1:2">
       <c r="A558">
-        <v>5.16</v>
+        <v>7.18</v>
       </c>
       <c r="B558" t="s">
         <v>0</v>
@@ -4835,55 +4835,55 @@
     </row>
     <row r="559" spans="1:2">
       <c r="A559">
-        <v>7.17</v>
+        <v>7.18</v>
       </c>
       <c r="B559" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="560" spans="1:2">
       <c r="A560">
-        <v>9.18</v>
+        <v>5.19</v>
       </c>
       <c r="B560" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="561" spans="1:2">
       <c r="A561">
-        <v>5.32</v>
+        <v>5.09</v>
       </c>
       <c r="B561" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="562" spans="1:2">
       <c r="A562">
-        <v>7.17</v>
+        <v>5.17</v>
       </c>
       <c r="B562" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="563" spans="1:2">
       <c r="A563">
-        <v>5.16</v>
+        <v>5.06</v>
       </c>
       <c r="B563" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="564" spans="1:2">
       <c r="A564">
-        <v>7.08</v>
+        <v>7.14</v>
       </c>
       <c r="B564" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="565" spans="1:2">
       <c r="A565">
-        <v>5.16</v>
+        <v>7.15</v>
       </c>
       <c r="B565" t="s">
         <v>0</v>
@@ -4891,23 +4891,23 @@
     </row>
     <row r="566" spans="1:2">
       <c r="A566">
-        <v>5.26</v>
+        <v>5.24</v>
       </c>
       <c r="B566" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="567" spans="1:2">
       <c r="A567">
-        <v>5.11</v>
+        <v>5.16</v>
       </c>
       <c r="B567" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="568" spans="1:2">
       <c r="A568">
-        <v>5.17</v>
+        <v>7.17</v>
       </c>
       <c r="B568" t="s">
         <v>0</v>
@@ -4915,31 +4915,31 @@
     </row>
     <row r="569" spans="1:2">
       <c r="A569">
-        <v>7.26</v>
+        <v>5.24</v>
       </c>
       <c r="B569" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="570" spans="1:2">
       <c r="A570">
-        <v>11.3</v>
+        <v>9.24</v>
       </c>
       <c r="B570" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="571" spans="1:2">
       <c r="A571">
-        <v>7.32</v>
+        <v>5.11</v>
       </c>
       <c r="B571" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="572" spans="1:2">
       <c r="A572">
-        <v>5.26</v>
+        <v>7.23</v>
       </c>
       <c r="B572" t="s">
         <v>0</v>
@@ -4947,31 +4947,31 @@
     </row>
     <row r="573" spans="1:2">
       <c r="A573">
-        <v>7.25</v>
+        <v>5.23</v>
       </c>
       <c r="B573" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="574" spans="1:2">
       <c r="A574">
-        <v>7.1</v>
+        <v>5.12</v>
       </c>
       <c r="B574" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="575" spans="1:2">
       <c r="A575">
-        <v>7.24</v>
+        <v>5.24</v>
       </c>
       <c r="B575" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="576" spans="1:2">
       <c r="A576">
-        <v>5.24</v>
+        <v>7.09</v>
       </c>
       <c r="B576" t="s">
         <v>0</v>
@@ -4979,7 +4979,7 @@
     </row>
     <row r="577" spans="1:2">
       <c r="A577">
-        <v>5.18</v>
+        <v>7.12</v>
       </c>
       <c r="B577" t="s">
         <v>0</v>
@@ -4987,15 +4987,15 @@
     </row>
     <row r="578" spans="1:2">
       <c r="A578">
-        <v>5.22</v>
+        <v>5.24</v>
       </c>
       <c r="B578" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="579" spans="1:2">
       <c r="A579">
-        <v>5.16</v>
+        <v>7.25</v>
       </c>
       <c r="B579" t="s">
         <v>0</v>
@@ -5003,15 +5003,15 @@
     </row>
     <row r="580" spans="1:2">
       <c r="A580">
-        <v>7.17</v>
+        <v>7.15</v>
       </c>
       <c r="B580" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="581" spans="1:2">
       <c r="A581">
-        <v>5.09</v>
+        <v>7.17</v>
       </c>
       <c r="B581" t="s">
         <v>0</v>
@@ -5019,10 +5019,2018 @@
     </row>
     <row r="582" spans="1:2">
       <c r="A582">
+        <v>7.3</v>
+      </c>
+      <c r="B582" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2">
+      <c r="A583">
+        <v>5.32</v>
+      </c>
+      <c r="B583" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2">
+      <c r="A584">
+        <v>7.21</v>
+      </c>
+      <c r="B584" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2">
+      <c r="A585">
+        <v>5.17</v>
+      </c>
+      <c r="B585" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2">
+      <c r="A586">
+        <v>5.12</v>
+      </c>
+      <c r="B586" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2">
+      <c r="A587">
+        <v>7.13</v>
+      </c>
+      <c r="B587" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="588" spans="1:2">
+      <c r="A588">
+        <v>7.15</v>
+      </c>
+      <c r="B588" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2">
+      <c r="A589">
         <v>5.25</v>
       </c>
-      <c r="B582" t="s">
-        <v>0</v>
+      <c r="B589" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2">
+      <c r="A590">
+        <v>5.31</v>
+      </c>
+      <c r="B590" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2">
+      <c r="A591">
+        <v>7.19</v>
+      </c>
+      <c r="B591" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2">
+      <c r="A592">
+        <v>7.25</v>
+      </c>
+      <c r="B592" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2">
+      <c r="A593">
+        <v>7.24</v>
+      </c>
+      <c r="B593" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2">
+      <c r="A594">
+        <v>5.16</v>
+      </c>
+      <c r="B594" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2">
+      <c r="A595">
+        <v>7.09</v>
+      </c>
+      <c r="B595" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2">
+      <c r="A596">
+        <v>5.17</v>
+      </c>
+      <c r="B596" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2">
+      <c r="A597">
+        <v>5.1</v>
+      </c>
+      <c r="B597" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2">
+      <c r="A598">
+        <v>9.1</v>
+      </c>
+      <c r="B598" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2">
+      <c r="A599">
+        <v>7.18</v>
+      </c>
+      <c r="B599" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="600" spans="1:2">
+      <c r="A600">
+        <v>5.18</v>
+      </c>
+      <c r="B600" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="601" spans="1:2">
+      <c r="A601">
+        <v>7.19</v>
+      </c>
+      <c r="B601" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="602" spans="1:2">
+      <c r="A602">
+        <v>9.1</v>
+      </c>
+      <c r="B602" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="603" spans="1:2">
+      <c r="A603">
+        <v>7.16</v>
+      </c>
+      <c r="B603" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="604" spans="1:2">
+      <c r="A604">
+        <v>5.22</v>
+      </c>
+      <c r="B604" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="605" spans="1:2">
+      <c r="A605">
+        <v>5.23</v>
+      </c>
+      <c r="B605" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="606" spans="1:2">
+      <c r="A606">
+        <v>5.17</v>
+      </c>
+      <c r="B606" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="607" spans="1:2">
+      <c r="A607">
+        <v>7.1</v>
+      </c>
+      <c r="B607" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="608" spans="1:2">
+      <c r="A608">
+        <v>5.18</v>
+      </c>
+      <c r="B608" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="609" spans="1:2">
+      <c r="A609">
+        <v>7.2</v>
+      </c>
+      <c r="B609" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="610" spans="1:2">
+      <c r="A610">
+        <v>7.24</v>
+      </c>
+      <c r="B610" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="611" spans="1:2">
+      <c r="A611">
+        <v>5.12</v>
+      </c>
+      <c r="B611" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="612" spans="1:2">
+      <c r="A612">
+        <v>5.24</v>
+      </c>
+      <c r="B612" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="613" spans="1:2">
+      <c r="A613">
+        <v>7.24</v>
+      </c>
+      <c r="B613" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="614" spans="1:2">
+      <c r="A614">
+        <v>5.17</v>
+      </c>
+      <c r="B614" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="615" spans="1:2">
+      <c r="A615">
+        <v>7.26</v>
+      </c>
+      <c r="B615" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="616" spans="1:2">
+      <c r="A616">
+        <v>7.12</v>
+      </c>
+      <c r="B616" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="617" spans="1:2">
+      <c r="A617">
+        <v>5.22</v>
+      </c>
+      <c r="B617" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="618" spans="1:2">
+      <c r="A618">
+        <v>5.18</v>
+      </c>
+      <c r="B618" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="619" spans="1:2">
+      <c r="A619">
+        <v>7.16</v>
+      </c>
+      <c r="B619" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="620" spans="1:2">
+      <c r="A620">
+        <v>11.18</v>
+      </c>
+      <c r="B620" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="621" spans="1:2">
+      <c r="A621">
+        <v>7.23</v>
+      </c>
+      <c r="B621" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="622" spans="1:2">
+      <c r="A622">
+        <v>5.26</v>
+      </c>
+      <c r="B622" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="623" spans="1:2">
+      <c r="A623">
+        <v>5.16</v>
+      </c>
+      <c r="B623" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="624" spans="1:2">
+      <c r="A624">
+        <v>5.18</v>
+      </c>
+      <c r="B624" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="625" spans="1:2">
+      <c r="A625">
+        <v>5.17</v>
+      </c>
+      <c r="B625" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="626" spans="1:2">
+      <c r="A626">
+        <v>7.11</v>
+      </c>
+      <c r="B626" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="627" spans="1:2">
+      <c r="A627">
+        <v>7.17</v>
+      </c>
+      <c r="B627" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="628" spans="1:2">
+      <c r="A628">
+        <v>7.25</v>
+      </c>
+      <c r="B628" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="629" spans="1:2">
+      <c r="A629">
+        <v>5.15</v>
+      </c>
+      <c r="B629" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="630" spans="1:2">
+      <c r="A630">
+        <v>5.23</v>
+      </c>
+      <c r="B630" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="631" spans="1:2">
+      <c r="A631">
+        <v>7.16</v>
+      </c>
+      <c r="B631" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="632" spans="1:2">
+      <c r="A632">
+        <v>5.26</v>
+      </c>
+      <c r="B632" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="633" spans="1:2">
+      <c r="A633">
+        <v>5.24</v>
+      </c>
+      <c r="B633" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="634" spans="1:2">
+      <c r="A634">
+        <v>11.3</v>
+      </c>
+      <c r="B634" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="635" spans="1:2">
+      <c r="A635">
+        <v>7.3</v>
+      </c>
+      <c r="B635" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="636" spans="1:2">
+      <c r="A636">
+        <v>7.16</v>
+      </c>
+      <c r="B636" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="637" spans="1:2">
+      <c r="A637">
+        <v>5.17</v>
+      </c>
+      <c r="B637" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="638" spans="1:2">
+      <c r="A638">
+        <v>7.25</v>
+      </c>
+      <c r="B638" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="639" spans="1:2">
+      <c r="A639">
+        <v>5.17</v>
+      </c>
+      <c r="B639" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="640" spans="1:2">
+      <c r="A640">
+        <v>5.25</v>
+      </c>
+      <c r="B640" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="641" spans="1:2">
+      <c r="A641">
+        <v>5.25</v>
+      </c>
+      <c r="B641" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="642" spans="1:2">
+      <c r="A642">
+        <v>7.18</v>
+      </c>
+      <c r="B642" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="643" spans="1:2">
+      <c r="A643">
+        <v>5.17</v>
+      </c>
+      <c r="B643" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="644" spans="1:2">
+      <c r="A644">
+        <v>7.12</v>
+      </c>
+      <c r="B644" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="645" spans="1:2">
+      <c r="A645">
+        <v>7.24</v>
+      </c>
+      <c r="B645" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="646" spans="1:2">
+      <c r="A646">
+        <v>7.37</v>
+      </c>
+      <c r="B646" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="647" spans="1:2">
+      <c r="A647">
+        <v>5.15</v>
+      </c>
+      <c r="B647" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="648" spans="1:2">
+      <c r="A648">
+        <v>5.15</v>
+      </c>
+      <c r="B648" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="649" spans="1:2">
+      <c r="A649">
+        <v>7.08</v>
+      </c>
+      <c r="B649" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="650" spans="1:2">
+      <c r="A650">
+        <v>7.16</v>
+      </c>
+      <c r="B650" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="651" spans="1:2">
+      <c r="A651">
+        <v>7.1</v>
+      </c>
+      <c r="B651" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="652" spans="1:2">
+      <c r="A652">
+        <v>7.18</v>
+      </c>
+      <c r="B652" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="653" spans="1:2">
+      <c r="A653">
+        <v>5.19</v>
+      </c>
+      <c r="B653" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="654" spans="1:2">
+      <c r="A654">
+        <v>7.25</v>
+      </c>
+      <c r="B654" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="655" spans="1:2">
+      <c r="A655">
+        <v>5.17</v>
+      </c>
+      <c r="B655" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="656" spans="1:2">
+      <c r="A656">
+        <v>5.16</v>
+      </c>
+      <c r="B656" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="657" spans="1:2">
+      <c r="A657">
+        <v>7.19</v>
+      </c>
+      <c r="B657" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="658" spans="1:2">
+      <c r="A658">
+        <v>5.18</v>
+      </c>
+      <c r="B658" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="659" spans="1:2">
+      <c r="A659">
+        <v>7.24</v>
+      </c>
+      <c r="B659" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="660" spans="1:2">
+      <c r="A660">
+        <v>5.15</v>
+      </c>
+      <c r="B660" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="661" spans="1:2">
+      <c r="A661">
+        <v>7.16</v>
+      </c>
+      <c r="B661" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="662" spans="1:2">
+      <c r="A662">
+        <v>7.18</v>
+      </c>
+      <c r="B662" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="663" spans="1:2">
+      <c r="A663">
+        <v>9.31</v>
+      </c>
+      <c r="B663" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="664" spans="1:2">
+      <c r="A664">
+        <v>7.18</v>
+      </c>
+      <c r="B664" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="665" spans="1:2">
+      <c r="A665">
+        <v>5.25</v>
+      </c>
+      <c r="B665" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="666" spans="1:2">
+      <c r="A666">
+        <v>5.1</v>
+      </c>
+      <c r="B666" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="667" spans="1:2">
+      <c r="A667">
+        <v>5.19</v>
+      </c>
+      <c r="B667" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="668" spans="1:2">
+      <c r="A668">
+        <v>5.11</v>
+      </c>
+      <c r="B668" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="669" spans="1:2">
+      <c r="A669">
+        <v>5.38</v>
+      </c>
+      <c r="B669" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="670" spans="1:2">
+      <c r="A670">
+        <v>11.32</v>
+      </c>
+      <c r="B670" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="671" spans="1:2">
+      <c r="A671">
+        <v>5.17</v>
+      </c>
+      <c r="B671" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="672" spans="1:2">
+      <c r="A672">
+        <v>7.32</v>
+      </c>
+      <c r="B672" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="673" spans="1:2">
+      <c r="A673">
+        <v>5.16</v>
+      </c>
+      <c r="B673" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="674" spans="1:2">
+      <c r="A674">
+        <v>7.24</v>
+      </c>
+      <c r="B674" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="675" spans="1:2">
+      <c r="A675">
+        <v>5.1</v>
+      </c>
+      <c r="B675" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="676" spans="1:2">
+      <c r="A676">
+        <v>7.26</v>
+      </c>
+      <c r="B676" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="677" spans="1:2">
+      <c r="A677">
+        <v>5.16</v>
+      </c>
+      <c r="B677" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="678" spans="1:2">
+      <c r="A678">
+        <v>5.19</v>
+      </c>
+      <c r="B678" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="679" spans="1:2">
+      <c r="A679">
+        <v>5.13</v>
+      </c>
+      <c r="B679" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="680" spans="1:2">
+      <c r="A680">
+        <v>5.29</v>
+      </c>
+      <c r="B680" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="681" spans="1:2">
+      <c r="A681">
+        <v>7.25</v>
+      </c>
+      <c r="B681" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="682" spans="1:2">
+      <c r="A682">
+        <v>7.16</v>
+      </c>
+      <c r="B682" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="683" spans="1:2">
+      <c r="A683">
+        <v>7.24</v>
+      </c>
+      <c r="B683" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="684" spans="1:2">
+      <c r="A684">
+        <v>5.15</v>
+      </c>
+      <c r="B684" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="685" spans="1:2">
+      <c r="A685">
+        <v>7.1</v>
+      </c>
+      <c r="B685" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="686" spans="1:2">
+      <c r="A686">
+        <v>7.09</v>
+      </c>
+      <c r="B686" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="687" spans="1:2">
+      <c r="A687">
+        <v>5.23</v>
+      </c>
+      <c r="B687" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="688" spans="1:2">
+      <c r="A688">
+        <v>5.31</v>
+      </c>
+      <c r="B688" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="689" spans="1:2">
+      <c r="A689">
+        <v>7.25</v>
+      </c>
+      <c r="B689" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="690" spans="1:2">
+      <c r="A690">
+        <v>5.26</v>
+      </c>
+      <c r="B690" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="691" spans="1:2">
+      <c r="A691">
+        <v>7.23</v>
+      </c>
+      <c r="B691" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="692" spans="1:2">
+      <c r="A692">
+        <v>5.17</v>
+      </c>
+      <c r="B692" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="693" spans="1:2">
+      <c r="A693">
+        <v>5.22</v>
+      </c>
+      <c r="B693" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="694" spans="1:2">
+      <c r="A694">
+        <v>5.16</v>
+      </c>
+      <c r="B694" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="695" spans="1:2">
+      <c r="A695">
+        <v>5.33</v>
+      </c>
+      <c r="B695" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="696" spans="1:2">
+      <c r="A696">
+        <v>9.25</v>
+      </c>
+      <c r="B696" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="697" spans="1:2">
+      <c r="A697">
+        <v>7.39</v>
+      </c>
+      <c r="B697" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="698" spans="1:2">
+      <c r="A698">
+        <v>5.2</v>
+      </c>
+      <c r="B698" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="699" spans="1:2">
+      <c r="A699">
+        <v>7.16</v>
+      </c>
+      <c r="B699" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="700" spans="1:2">
+      <c r="A700">
+        <v>5.29</v>
+      </c>
+      <c r="B700" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="701" spans="1:2">
+      <c r="A701">
+        <v>5.24</v>
+      </c>
+      <c r="B701" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="702" spans="1:2">
+      <c r="A702">
+        <v>9.18</v>
+      </c>
+      <c r="B702" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="703" spans="1:2">
+      <c r="A703">
+        <v>7.23</v>
+      </c>
+      <c r="B703" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="704" spans="1:2">
+      <c r="A704">
+        <v>7.19</v>
+      </c>
+      <c r="B704" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="705" spans="1:2">
+      <c r="A705">
+        <v>8.16</v>
+      </c>
+      <c r="B705" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="706" spans="1:2">
+      <c r="A706">
+        <v>7.11</v>
+      </c>
+      <c r="B706" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="707" spans="1:2">
+      <c r="A707">
+        <v>5.3</v>
+      </c>
+      <c r="B707" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="708" spans="1:2">
+      <c r="A708">
+        <v>7.24</v>
+      </c>
+      <c r="B708" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="709" spans="1:2">
+      <c r="A709">
+        <v>7.23</v>
+      </c>
+      <c r="B709" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="710" spans="1:2">
+      <c r="A710">
+        <v>5.17</v>
+      </c>
+      <c r="B710" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="711" spans="1:2">
+      <c r="A711">
+        <v>5.26</v>
+      </c>
+      <c r="B711" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="712" spans="1:2">
+      <c r="A712">
+        <v>5.27</v>
+      </c>
+      <c r="B712" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="713" spans="1:2">
+      <c r="A713">
+        <v>5.17</v>
+      </c>
+      <c r="B713" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="714" spans="1:2">
+      <c r="A714">
+        <v>5.24</v>
+      </c>
+      <c r="B714" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="715" spans="1:2">
+      <c r="A715">
+        <v>7.16</v>
+      </c>
+      <c r="B715" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="716" spans="1:2">
+      <c r="A716">
+        <v>5.18</v>
+      </c>
+      <c r="B716" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="717" spans="1:2">
+      <c r="A717">
+        <v>5.18</v>
+      </c>
+      <c r="B717" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="718" spans="1:2">
+      <c r="A718">
+        <v>7.22</v>
+      </c>
+      <c r="B718" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="719" spans="1:2">
+      <c r="A719">
+        <v>5.06</v>
+      </c>
+      <c r="B719" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="720" spans="1:2">
+      <c r="A720">
+        <v>5.16</v>
+      </c>
+      <c r="B720" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="721" spans="1:2">
+      <c r="A721">
+        <v>11.19</v>
+      </c>
+      <c r="B721" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="722" spans="1:2">
+      <c r="A722">
+        <v>5.12</v>
+      </c>
+      <c r="B722" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="723" spans="1:2">
+      <c r="A723">
+        <v>7.16</v>
+      </c>
+      <c r="B723" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="724" spans="1:2">
+      <c r="A724">
+        <v>7.14</v>
+      </c>
+      <c r="B724" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="725" spans="1:2">
+      <c r="A725">
+        <v>5.21</v>
+      </c>
+      <c r="B725" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="726" spans="1:2">
+      <c r="A726">
+        <v>9.24</v>
+      </c>
+      <c r="B726" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="727" spans="1:2">
+      <c r="A727">
+        <v>11.24</v>
+      </c>
+      <c r="B727" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="728" spans="1:2">
+      <c r="A728">
+        <v>5.18</v>
+      </c>
+      <c r="B728" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="729" spans="1:2">
+      <c r="A729">
+        <v>7.31</v>
+      </c>
+      <c r="B729" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="730" spans="1:2">
+      <c r="A730">
+        <v>5.18</v>
+      </c>
+      <c r="B730" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="731" spans="1:2">
+      <c r="A731">
+        <v>7.17</v>
+      </c>
+      <c r="B731" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="732" spans="1:2">
+      <c r="A732">
+        <v>7.24</v>
+      </c>
+      <c r="B732" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="733" spans="1:2">
+      <c r="A733">
+        <v>7.26</v>
+      </c>
+      <c r="B733" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="734" spans="1:2">
+      <c r="A734">
+        <v>7.15</v>
+      </c>
+      <c r="B734" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="735" spans="1:2">
+      <c r="A735">
+        <v>5.22</v>
+      </c>
+      <c r="B735" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="736" spans="1:2">
+      <c r="A736">
+        <v>7.16</v>
+      </c>
+      <c r="B736" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="737" spans="1:2">
+      <c r="A737">
+        <v>7.18</v>
+      </c>
+      <c r="B737" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="738" spans="1:2">
+      <c r="A738">
+        <v>7.19</v>
+      </c>
+      <c r="B738" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="739" spans="1:2">
+      <c r="A739">
+        <v>11.19</v>
+      </c>
+      <c r="B739" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="740" spans="1:2">
+      <c r="A740">
+        <v>5.17</v>
+      </c>
+      <c r="B740" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="741" spans="1:2">
+      <c r="A741">
+        <v>5.24</v>
+      </c>
+      <c r="B741" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="742" spans="1:2">
+      <c r="A742">
+        <v>5.16</v>
+      </c>
+      <c r="B742" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="743" spans="1:2">
+      <c r="A743">
+        <v>11.24</v>
+      </c>
+      <c r="B743" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="744" spans="1:2">
+      <c r="A744">
+        <v>5.18</v>
+      </c>
+      <c r="B744" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="745" spans="1:2">
+      <c r="A745">
+        <v>5.11</v>
+      </c>
+      <c r="B745" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="746" spans="1:2">
+      <c r="A746">
+        <v>9.17</v>
+      </c>
+      <c r="B746" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="747" spans="1:2">
+      <c r="A747">
+        <v>5.1</v>
+      </c>
+      <c r="B747" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="748" spans="1:2">
+      <c r="A748">
+        <v>7.18</v>
+      </c>
+      <c r="B748" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="749" spans="1:2">
+      <c r="A749">
+        <v>7.18</v>
+      </c>
+      <c r="B749" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="750" spans="1:2">
+      <c r="A750">
+        <v>7.23</v>
+      </c>
+      <c r="B750" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="751" spans="1:2">
+      <c r="A751">
+        <v>7.1</v>
+      </c>
+      <c r="B751" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="752" spans="1:2">
+      <c r="A752">
+        <v>7.18</v>
+      </c>
+      <c r="B752" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="753" spans="1:2">
+      <c r="A753">
+        <v>5.31</v>
+      </c>
+      <c r="B753" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="754" spans="1:2">
+      <c r="A754">
+        <v>9.16</v>
+      </c>
+      <c r="B754" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="755" spans="1:2">
+      <c r="A755">
+        <v>7.2</v>
+      </c>
+      <c r="B755" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="756" spans="1:2">
+      <c r="A756">
+        <v>5.07</v>
+      </c>
+      <c r="B756" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="757" spans="1:2">
+      <c r="A757">
+        <v>7.1</v>
+      </c>
+      <c r="B757" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="758" spans="1:2">
+      <c r="A758">
+        <v>5.23</v>
+      </c>
+      <c r="B758" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="759" spans="1:2">
+      <c r="A759">
+        <v>5.16</v>
+      </c>
+      <c r="B759" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="760" spans="1:2">
+      <c r="A760">
+        <v>7.15</v>
+      </c>
+      <c r="B760" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="761" spans="1:2">
+      <c r="A761">
+        <v>5.16</v>
+      </c>
+      <c r="B761" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="762" spans="1:2">
+      <c r="A762">
+        <v>5.16</v>
+      </c>
+      <c r="B762" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="763" spans="1:2">
+      <c r="A763">
+        <v>5.19</v>
+      </c>
+      <c r="B763" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="764" spans="1:2">
+      <c r="A764">
+        <v>5.09</v>
+      </c>
+      <c r="B764" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="765" spans="1:2">
+      <c r="A765">
+        <v>7.16</v>
+      </c>
+      <c r="B765" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="766" spans="1:2">
+      <c r="A766">
+        <v>7.24</v>
+      </c>
+      <c r="B766" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="767" spans="1:2">
+      <c r="A767">
+        <v>7.25</v>
+      </c>
+      <c r="B767" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="768" spans="1:2">
+      <c r="A768">
+        <v>5.16</v>
+      </c>
+      <c r="B768" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="769" spans="1:2">
+      <c r="A769">
+        <v>7.15</v>
+      </c>
+      <c r="B769" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="770" spans="1:2">
+      <c r="A770">
+        <v>9.15</v>
+      </c>
+      <c r="B770" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="771" spans="1:2">
+      <c r="A771">
+        <v>5.16</v>
+      </c>
+      <c r="B771" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="772" spans="1:2">
+      <c r="A772">
+        <v>5.32</v>
+      </c>
+      <c r="B772" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="773" spans="1:2">
+      <c r="A773">
+        <v>5.16</v>
+      </c>
+      <c r="B773" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="774" spans="1:2">
+      <c r="A774">
+        <v>5.1</v>
+      </c>
+      <c r="B774" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="775" spans="1:2">
+      <c r="A775">
+        <v>7.1</v>
+      </c>
+      <c r="B775" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="776" spans="1:2">
+      <c r="A776">
+        <v>7.26</v>
+      </c>
+      <c r="B776" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="777" spans="1:2">
+      <c r="A777">
+        <v>5.16</v>
+      </c>
+      <c r="B777" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="778" spans="1:2">
+      <c r="A778">
+        <v>7.18</v>
+      </c>
+      <c r="B778" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="779" spans="1:2">
+      <c r="A779">
+        <v>9.16</v>
+      </c>
+      <c r="B779" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="780" spans="1:2">
+      <c r="A780">
+        <v>7.23</v>
+      </c>
+      <c r="B780" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="781" spans="1:2">
+      <c r="A781">
+        <v>5.33</v>
+      </c>
+      <c r="B781" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="782" spans="1:2">
+      <c r="A782">
+        <v>7.17</v>
+      </c>
+      <c r="B782" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="783" spans="1:2">
+      <c r="A783">
+        <v>7.18</v>
+      </c>
+      <c r="B783" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="784" spans="1:2">
+      <c r="A784">
+        <v>5.25</v>
+      </c>
+      <c r="B784" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="785" spans="1:2">
+      <c r="A785">
+        <v>7.24</v>
+      </c>
+      <c r="B785" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="786" spans="1:2">
+      <c r="A786">
+        <v>5.19</v>
+      </c>
+      <c r="B786" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="787" spans="1:2">
+      <c r="A787">
+        <v>7.32</v>
+      </c>
+      <c r="B787" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="788" spans="1:2">
+      <c r="A788">
+        <v>7.19</v>
+      </c>
+      <c r="B788" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="789" spans="1:2">
+      <c r="A789">
+        <v>5.24</v>
+      </c>
+      <c r="B789" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="790" spans="1:2">
+      <c r="A790">
+        <v>7.2</v>
+      </c>
+      <c r="B790" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="791" spans="1:2">
+      <c r="A791">
+        <v>5.16</v>
+      </c>
+      <c r="B791" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="792" spans="1:2">
+      <c r="A792">
+        <v>7.31</v>
+      </c>
+      <c r="B792" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="793" spans="1:2">
+      <c r="A793">
+        <v>5.13</v>
+      </c>
+      <c r="B793" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="794" spans="1:2">
+      <c r="A794">
+        <v>5.32</v>
+      </c>
+      <c r="B794" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="795" spans="1:2">
+      <c r="A795">
+        <v>5.23</v>
+      </c>
+      <c r="B795" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="796" spans="1:2">
+      <c r="A796">
+        <v>7.17</v>
+      </c>
+      <c r="B796" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="797" spans="1:2">
+      <c r="A797">
+        <v>5.24</v>
+      </c>
+      <c r="B797" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="798" spans="1:2">
+      <c r="A798">
+        <v>7.25</v>
+      </c>
+      <c r="B798" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="799" spans="1:2">
+      <c r="A799">
+        <v>5.1</v>
+      </c>
+      <c r="B799" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="800" spans="1:2">
+      <c r="A800">
+        <v>5.25</v>
+      </c>
+      <c r="B800" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="801" spans="1:2">
+      <c r="A801">
+        <v>5.19</v>
+      </c>
+      <c r="B801" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="802" spans="1:2">
+      <c r="A802">
+        <v>5.18</v>
+      </c>
+      <c r="B802" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="803" spans="1:2">
+      <c r="A803">
+        <v>5.25</v>
+      </c>
+      <c r="B803" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="804" spans="1:2">
+      <c r="A804">
+        <v>5.1</v>
+      </c>
+      <c r="B804" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="805" spans="1:2">
+      <c r="A805">
+        <v>7.15</v>
+      </c>
+      <c r="B805" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="806" spans="1:2">
+      <c r="A806">
+        <v>5.39</v>
+      </c>
+      <c r="B806" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="807" spans="1:2">
+      <c r="A807">
+        <v>5.1</v>
+      </c>
+      <c r="B807" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="808" spans="1:2">
+      <c r="A808">
+        <v>5.18</v>
+      </c>
+      <c r="B808" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="809" spans="1:2">
+      <c r="A809">
+        <v>5.16</v>
+      </c>
+      <c r="B809" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="810" spans="1:2">
+      <c r="A810">
+        <v>7.17</v>
+      </c>
+      <c r="B810" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="811" spans="1:2">
+      <c r="A811">
+        <v>9.18</v>
+      </c>
+      <c r="B811" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="812" spans="1:2">
+      <c r="A812">
+        <v>5.32</v>
+      </c>
+      <c r="B812" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="813" spans="1:2">
+      <c r="A813">
+        <v>7.17</v>
+      </c>
+      <c r="B813" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="814" spans="1:2">
+      <c r="A814">
+        <v>5.16</v>
+      </c>
+      <c r="B814" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="815" spans="1:2">
+      <c r="A815">
+        <v>7.08</v>
+      </c>
+      <c r="B815" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="816" spans="1:2">
+      <c r="A816">
+        <v>5.16</v>
+      </c>
+      <c r="B816" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="817" spans="1:2">
+      <c r="A817">
+        <v>5.26</v>
+      </c>
+      <c r="B817" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="818" spans="1:2">
+      <c r="A818">
+        <v>5.11</v>
+      </c>
+      <c r="B818" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="819" spans="1:2">
+      <c r="A819">
+        <v>5.17</v>
+      </c>
+      <c r="B819" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="820" spans="1:2">
+      <c r="A820">
+        <v>7.26</v>
+      </c>
+      <c r="B820" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="821" spans="1:2">
+      <c r="A821">
+        <v>11.3</v>
+      </c>
+      <c r="B821" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="822" spans="1:2">
+      <c r="A822">
+        <v>7.32</v>
+      </c>
+      <c r="B822" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="823" spans="1:2">
+      <c r="A823">
+        <v>5.26</v>
+      </c>
+      <c r="B823" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="824" spans="1:2">
+      <c r="A824">
+        <v>7.25</v>
+      </c>
+      <c r="B824" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="825" spans="1:2">
+      <c r="A825">
+        <v>7.1</v>
+      </c>
+      <c r="B825" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="826" spans="1:2">
+      <c r="A826">
+        <v>7.24</v>
+      </c>
+      <c r="B826" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="827" spans="1:2">
+      <c r="A827">
+        <v>5.24</v>
+      </c>
+      <c r="B827" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="828" spans="1:2">
+      <c r="A828">
+        <v>5.18</v>
+      </c>
+      <c r="B828" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="829" spans="1:2">
+      <c r="A829">
+        <v>5.22</v>
+      </c>
+      <c r="B829" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="830" spans="1:2">
+      <c r="A830">
+        <v>5.16</v>
+      </c>
+      <c r="B830" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="831" spans="1:2">
+      <c r="A831">
+        <v>7.17</v>
+      </c>
+      <c r="B831" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="832" spans="1:2">
+      <c r="A832">
+        <v>5.09</v>
+      </c>
+      <c r="B832" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="833" spans="1:2">
+      <c r="A833">
+        <v>5.25</v>
+      </c>
+      <c r="B833" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/dataset2.xlsx
+++ b/dataset2.xlsx
@@ -1,29 +1,177 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\งานเขียนโปรแกรม\Project\Poker-ML\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C32E84C-8F36-4C85-BE08-E38AA1951658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="6585" yWindow="2445" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dataset" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="1">
-  <si>
-    <t>Royal flush</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="44">
+  <si>
+    <t>K♠</t>
+  </si>
+  <si>
+    <t>6♦</t>
+  </si>
+  <si>
+    <t>6♣</t>
+  </si>
+  <si>
+    <t>3♠</t>
+  </si>
+  <si>
+    <t>3♦</t>
+  </si>
+  <si>
+    <t>9♣</t>
+  </si>
+  <si>
+    <t>4♥</t>
+  </si>
+  <si>
+    <t>2♣</t>
+  </si>
+  <si>
+    <t>7♥</t>
+  </si>
+  <si>
+    <t>2♦</t>
+  </si>
+  <si>
+    <t>4♦</t>
+  </si>
+  <si>
+    <t>J♣</t>
+  </si>
+  <si>
+    <t>K♣</t>
+  </si>
+  <si>
+    <t>7♣</t>
+  </si>
+  <si>
+    <t>6♥</t>
+  </si>
+  <si>
+    <t>10♣</t>
+  </si>
+  <si>
+    <t>2♥</t>
+  </si>
+  <si>
+    <t>5♦</t>
+  </si>
+  <si>
+    <t>Q♣</t>
+  </si>
+  <si>
+    <t>J♥</t>
+  </si>
+  <si>
+    <t>6♠</t>
+  </si>
+  <si>
+    <t>J♠</t>
+  </si>
+  <si>
+    <t>4♣</t>
+  </si>
+  <si>
+    <t>A♠</t>
+  </si>
+  <si>
+    <t>A♣</t>
+  </si>
+  <si>
+    <t>8♦</t>
+  </si>
+  <si>
+    <t>10♠</t>
+  </si>
+  <si>
+    <t>8♣</t>
+  </si>
+  <si>
+    <t>5♥</t>
+  </si>
+  <si>
+    <t>3♥</t>
+  </si>
+  <si>
+    <t>A♦</t>
+  </si>
+  <si>
+    <t>8♠</t>
+  </si>
+  <si>
+    <t>10♥</t>
+  </si>
+  <si>
+    <t>7♠</t>
+  </si>
+  <si>
+    <t>7♦</t>
+  </si>
+  <si>
+    <t>K♥</t>
+  </si>
+  <si>
+    <t>3♣</t>
+  </si>
+  <si>
+    <t>5♠</t>
+  </si>
+  <si>
+    <t>4♠</t>
+  </si>
+  <si>
+    <t>J♦</t>
+  </si>
+  <si>
+    <t>10♦</t>
+  </si>
+  <si>
+    <t>8♥</t>
+  </si>
+  <si>
+    <t>Q♥</t>
+  </si>
+  <si>
+    <t>Q♠</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -52,21 +200,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -104,7 +263,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -138,6 +297,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -172,9 +332,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -347,172 +508,407 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1">
-        <v>14.45</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2">
-        <v>14.15</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
-        <v>14.05</v>
-      </c>
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4">
-        <v>14.45</v>
-      </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5">
-        <v>14.15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6">
-        <v>14.1</v>
-      </c>
-      <c r="B6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7">
-        <v>14.15</v>
-      </c>
-      <c r="B7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8">
-        <v>14.45</v>
-      </c>
-      <c r="B8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9">
-        <v>14.45</v>
-      </c>
-      <c r="B9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10">
-        <v>14.45</v>
-      </c>
-      <c r="B10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11">
-        <v>14.1</v>
-      </c>
-      <c r="B11" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12">
-        <v>14.45</v>
-      </c>
-      <c r="B12" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13">
-        <v>14.15</v>
-      </c>
-      <c r="B13" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14">
-        <v>14.15</v>
-      </c>
-      <c r="B14" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15">
-        <v>14.05</v>
-      </c>
-      <c r="B15" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16">
-        <v>14.1</v>
-      </c>
-      <c r="B16" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17">
-        <v>14.15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18">
-        <v>14.45</v>
-      </c>
-      <c r="B18" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19">
-        <v>14.05</v>
-      </c>
-      <c r="B19" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20">
-        <v>14.1</v>
-      </c>
-      <c r="B20" t="s">
-        <v>0</v>
-      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
